--- a/06. Schedule/Schedule.xlsx
+++ b/06. Schedule/Schedule.xlsx
@@ -344,10 +344,10 @@
     <t>SignalR</t>
   </si>
   <si>
-    <t>Realtime bằng SignalR</t>
+    <t>Implement vào project ASP.Net</t>
   </si>
   <si>
-    <t>Implement vào project ASP.Net</t>
+    <t>Đọc tài liệu Realtime bằng SignalR</t>
   </si>
 </sst>
 </file>
@@ -1930,6 +1930,29 @@
     <xf numFmtId="168" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1937,6 +1960,70 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1946,102 +2033,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2089,57 +2104,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2148,15 +2157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3309,10 +3309,10 @@
   <dimension ref="A1:EL120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="S76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95:J96"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3440,20 +3440,20 @@
       <c r="K2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="173" t="s">
+      <c r="L2" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="174"/>
-      <c r="N2" s="173" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="174"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="118"/>
-      <c r="Q2" s="170">
+      <c r="Q2" s="201">
         <f ca="1">TODAY()</f>
-        <v>43298</v>
-      </c>
-      <c r="R2" s="171"/>
+        <v>43304</v>
+      </c>
+      <c r="R2" s="202"/>
       <c r="S2" s="35"/>
       <c r="T2" s="69"/>
       <c r="U2" s="30"/>
@@ -3513,21 +3513,21 @@
       <c r="BW2" s="38"/>
       <c r="BX2" s="38"/>
       <c r="BY2" s="38"/>
-      <c r="BZ2" s="164">
+      <c r="BZ2" s="195">
         <v>0.05</v>
       </c>
-      <c r="CA2" s="165"/>
-      <c r="CB2" s="165"/>
-      <c r="CC2" s="164">
+      <c r="CA2" s="196"/>
+      <c r="CB2" s="196"/>
+      <c r="CC2" s="195">
         <v>0.15</v>
       </c>
-      <c r="CD2" s="165"/>
-      <c r="CE2" s="165"/>
-      <c r="CF2" s="164">
+      <c r="CD2" s="196"/>
+      <c r="CE2" s="196"/>
+      <c r="CF2" s="195">
         <v>0.8</v>
       </c>
-      <c r="CG2" s="165"/>
-      <c r="CH2" s="165"/>
+      <c r="CG2" s="196"/>
+      <c r="CH2" s="196"/>
       <c r="CI2" s="40"/>
       <c r="CJ2" s="40"/>
       <c r="CK2" s="40"/>
@@ -3585,7 +3585,7 @@
       <c r="EK2" s="40"/>
       <c r="EL2" s="15" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/17</v>
+        <v>Date： 2018/07/23</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -3612,19 +3612,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="175">
+      <c r="L3" s="181">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="175">
+      <c r="M3" s="182"/>
+      <c r="N3" s="181">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="176"/>
+      <c r="O3" s="182"/>
       <c r="P3" s="136"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
       <c r="S3" s="35"/>
       <c r="T3" s="70"/>
       <c r="U3" s="107"/>
@@ -3684,21 +3684,21 @@
       <c r="BW3" s="38"/>
       <c r="BX3" s="38"/>
       <c r="BY3" s="38"/>
-      <c r="BZ3" s="167" t="s">
+      <c r="BZ3" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="CA3" s="168"/>
-      <c r="CB3" s="169"/>
-      <c r="CC3" s="166" t="s">
+      <c r="CA3" s="199"/>
+      <c r="CB3" s="200"/>
+      <c r="CC3" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="CD3" s="166"/>
-      <c r="CE3" s="166"/>
-      <c r="CF3" s="167" t="s">
+      <c r="CD3" s="197"/>
+      <c r="CE3" s="197"/>
+      <c r="CF3" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" s="168"/>
-      <c r="CH3" s="169"/>
+      <c r="CG3" s="199"/>
+      <c r="CH3" s="200"/>
       <c r="EL3" s="31">
         <f>B2</f>
         <v>0</v>
@@ -3882,16 +3882,16 @@
       <c r="E7" s="133"/>
       <c r="F7" s="126"/>
       <c r="G7" s="108"/>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="186"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="192"/>
       <c r="P7" s="126"/>
       <c r="Q7" s="138"/>
       <c r="R7" s="138"/>
@@ -3919,16 +3919,16 @@
         <f>IF(MAX(K11:K12)=DATE(1900,1,0),"",MAX(K11:K12))</f>
         <v>43292</v>
       </c>
-      <c r="L8" s="162">
+      <c r="L8" s="193">
         <f>SUM(M11:M110)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="163"/>
-      <c r="N8" s="162">
+      <c r="M8" s="194"/>
+      <c r="N8" s="193">
         <f>SUM(O11:O110)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="163"/>
+      <c r="O8" s="194"/>
       <c r="P8" s="124"/>
       <c r="Q8" s="139"/>
       <c r="R8" s="140" t="str">
@@ -4274,52 +4274,52 @@
       <c r="EI8" s="88"/>
       <c r="EJ8" s="88"/>
       <c r="EK8" s="88"/>
-      <c r="EL8" s="161" t="s">
+      <c r="EL8" s="204" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="194" t="s">
+      <c r="E9" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="198" t="s">
+      <c r="G9" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="190"/>
-      <c r="J9" s="196" t="s">
+      <c r="I9" s="169"/>
+      <c r="J9" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="197"/>
-      <c r="L9" s="177" t="s">
+      <c r="K9" s="177"/>
+      <c r="L9" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="178"/>
-      <c r="N9" s="183" t="s">
+      <c r="M9" s="184"/>
+      <c r="N9" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="143" t="s">
+      <c r="O9" s="184"/>
+      <c r="P9" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="179" t="s">
+      <c r="Q9" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="180"/>
+      <c r="R9" s="186"/>
       <c r="S9" s="29">
         <v>43282</v>
       </c>
@@ -4811,15 +4811,15 @@
         <f t="shared" si="2"/>
         <v>43404</v>
       </c>
-      <c r="EL9" s="161"/>
+      <c r="EL9" s="204"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="198"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="178"/>
       <c r="H10" s="112" t="s">
         <v>20</v>
       </c>
@@ -4844,9 +4844,9 @@
       <c r="O10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="188"/>
       <c r="S10" s="22">
         <f>S9</f>
         <v>43282</v>
@@ -5177,40 +5177,40 @@
       <c r="EI10" s="89"/>
       <c r="EJ10" s="89"/>
       <c r="EK10" s="89"/>
-      <c r="EL10" s="161"/>
+      <c r="EL10" s="204"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="145" t="s">
+      <c r="D11" s="146"/>
+      <c r="E11" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147">
+      <c r="F11" s="148"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152">
         <v>43282</v>
       </c>
-      <c r="I11" s="147">
+      <c r="I11" s="152">
         <v>43292</v>
       </c>
-      <c r="J11" s="147">
+      <c r="J11" s="152">
         <v>43291</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="152">
         <v>43292</v>
       </c>
-      <c r="L11" s="149"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="155"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="162"/>
       <c r="S11" s="84"/>
       <c r="T11" s="87"/>
       <c r="U11" s="86"/>
@@ -5341,23 +5341,23 @@
       <c r="EL11" s="95"/>
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
-      <c r="B12" s="200"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="156"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="163"/>
       <c r="S12" s="84"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
@@ -5484,23 +5484,23 @@
       <c r="EL12" s="96"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="199"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="155"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="162"/>
       <c r="S13" s="84"/>
       <c r="T13" s="87"/>
       <c r="U13" s="86"/>
@@ -5631,23 +5631,23 @@
       <c r="EL13" s="95"/>
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
-      <c r="B14" s="200"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="156"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="163"/>
       <c r="S14" s="84"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
@@ -5774,23 +5774,23 @@
       <c r="EL14" s="96"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="199"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="155"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="162"/>
       <c r="S15" s="84"/>
       <c r="T15" s="87"/>
       <c r="U15" s="86"/>
@@ -5917,23 +5917,23 @@
       <c r="EL15" s="95"/>
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
-      <c r="B16" s="200"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="156"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="163"/>
       <c r="S16" s="84"/>
       <c r="T16" s="85"/>
       <c r="U16" s="85"/>
@@ -6064,35 +6064,35 @@
       <c r="EL16" s="96"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="199"/>
-      <c r="C17" s="191" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="145" t="s">
+      <c r="D17" s="146"/>
+      <c r="E17" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147">
+      <c r="F17" s="148"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152">
         <v>43282</v>
       </c>
-      <c r="I17" s="147">
+      <c r="I17" s="152">
         <v>43292</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="152">
         <v>43291</v>
       </c>
-      <c r="K17" s="147">
+      <c r="K17" s="152">
         <v>43292</v>
       </c>
-      <c r="L17" s="149"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="155"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="159"/>
+      <c r="R17" s="162"/>
       <c r="S17" s="84"/>
       <c r="T17" s="87"/>
       <c r="U17" s="86"/>
@@ -6221,23 +6221,23 @@
       <c r="EL17" s="95"/>
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
-      <c r="B18" s="200"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="156"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="163"/>
       <c r="S18" s="84"/>
       <c r="T18" s="85"/>
       <c r="U18" s="85"/>
@@ -6366,33 +6366,33 @@
       <c r="EL18" s="96"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="199"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="145" t="s">
+      <c r="B19" s="141"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147">
+      <c r="F19" s="148"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152">
         <v>43282</v>
       </c>
-      <c r="I19" s="147">
+      <c r="I19" s="152">
         <v>43292</v>
       </c>
-      <c r="J19" s="147">
+      <c r="J19" s="152">
         <v>43291</v>
       </c>
-      <c r="K19" s="147">
+      <c r="K19" s="152">
         <v>43292</v>
       </c>
-      <c r="L19" s="149"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="155"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="148"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="162"/>
       <c r="S19" s="84"/>
       <c r="T19" s="87"/>
       <c r="U19" s="86"/>
@@ -6521,23 +6521,23 @@
       <c r="EL19" s="95"/>
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
-      <c r="B20" s="200"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="156"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="163"/>
       <c r="S20" s="84"/>
       <c r="T20" s="85"/>
       <c r="U20" s="85"/>
@@ -6666,23 +6666,23 @@
       <c r="EL20" s="96"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="199"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="149"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="155"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="162"/>
       <c r="S21" s="84"/>
       <c r="T21" s="87"/>
       <c r="U21" s="86"/>
@@ -6811,23 +6811,23 @@
       <c r="EL21" s="95"/>
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
-      <c r="B22" s="200"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="156"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="163"/>
       <c r="S22" s="84"/>
       <c r="T22" s="85"/>
       <c r="U22" s="85"/>
@@ -6954,23 +6954,23 @@
       <c r="EL22" s="96"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="199"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="155"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="162"/>
       <c r="S23" s="84"/>
       <c r="T23" s="87"/>
       <c r="U23" s="86"/>
@@ -7099,23 +7099,23 @@
       <c r="EL23" s="95"/>
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
-      <c r="B24" s="200"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="156"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="163"/>
       <c r="S24" s="84"/>
       <c r="T24" s="85"/>
       <c r="U24" s="85"/>
@@ -7242,23 +7242,23 @@
       <c r="EL24" s="96"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="199"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="149"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="155"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="159"/>
+      <c r="R25" s="162"/>
       <c r="S25" s="84"/>
       <c r="T25" s="87"/>
       <c r="U25" s="86"/>
@@ -7387,23 +7387,23 @@
       <c r="EL25" s="95"/>
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
-      <c r="B26" s="200"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="156"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="163"/>
       <c r="S26" s="84"/>
       <c r="T26" s="85"/>
       <c r="U26" s="85"/>
@@ -7530,23 +7530,23 @@
       <c r="EL26" s="96"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="199"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="155"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="162"/>
       <c r="S27" s="84"/>
       <c r="T27" s="87"/>
       <c r="U27" s="86"/>
@@ -7675,23 +7675,23 @@
       <c r="EL27" s="95"/>
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
-      <c r="B28" s="200"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="156"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="163"/>
       <c r="S28" s="84"/>
       <c r="T28" s="85"/>
       <c r="U28" s="85"/>
@@ -7818,37 +7818,37 @@
       <c r="EL28" s="96"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="191" t="s">
+      <c r="C29" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="153"/>
-      <c r="E29" s="145" t="s">
+      <c r="D29" s="146"/>
+      <c r="E29" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="141"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147">
+      <c r="F29" s="148"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152">
         <v>43293</v>
       </c>
-      <c r="I29" s="147">
+      <c r="I29" s="152">
         <v>43294</v>
       </c>
-      <c r="J29" s="147">
+      <c r="J29" s="152">
         <v>43293</v>
       </c>
-      <c r="K29" s="147">
+      <c r="K29" s="152">
         <v>43144</v>
       </c>
-      <c r="L29" s="149"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="155"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="162"/>
       <c r="S29" s="84"/>
       <c r="T29" s="87"/>
       <c r="U29" s="86"/>
@@ -7977,23 +7977,23 @@
       <c r="EL29" s="95"/>
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
-      <c r="B30" s="200"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="156"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="160"/>
+      <c r="R30" s="163"/>
       <c r="S30" s="84"/>
       <c r="T30" s="85"/>
       <c r="U30" s="85"/>
@@ -8120,33 +8120,33 @@
       <c r="EL30" s="96"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="199"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="145" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="141"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147">
+      <c r="F31" s="148"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152">
         <v>43293</v>
       </c>
-      <c r="I31" s="147">
+      <c r="I31" s="152">
         <v>43294</v>
       </c>
-      <c r="J31" s="147">
+      <c r="J31" s="152">
         <v>43293</v>
       </c>
-      <c r="K31" s="147">
+      <c r="K31" s="152">
         <v>43144</v>
       </c>
-      <c r="L31" s="149"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="155"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="162"/>
       <c r="S31" s="84"/>
       <c r="T31" s="87"/>
       <c r="U31" s="86"/>
@@ -8275,23 +8275,23 @@
       <c r="EL31" s="95"/>
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
-      <c r="B32" s="200"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="152"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="156"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="160"/>
+      <c r="R32" s="163"/>
       <c r="S32" s="84"/>
       <c r="T32" s="85"/>
       <c r="U32" s="85"/>
@@ -8418,33 +8418,33 @@
       <c r="EL32" s="96"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="199"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="145" t="s">
+      <c r="B33" s="141"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="141"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147">
+      <c r="F33" s="148"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152">
         <v>43293</v>
       </c>
-      <c r="I33" s="147">
+      <c r="I33" s="152">
         <v>43294</v>
       </c>
-      <c r="J33" s="147">
+      <c r="J33" s="152">
         <v>43293</v>
       </c>
-      <c r="K33" s="147">
+      <c r="K33" s="152">
         <v>43144</v>
       </c>
-      <c r="L33" s="149"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="155"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="162"/>
       <c r="S33" s="84"/>
       <c r="T33" s="87"/>
       <c r="U33" s="86"/>
@@ -8571,23 +8571,23 @@
       <c r="EL33" s="95"/>
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
-      <c r="B34" s="200"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="156"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="160"/>
+      <c r="R34" s="163"/>
       <c r="S34" s="84"/>
       <c r="T34" s="85"/>
       <c r="U34" s="85"/>
@@ -8716,31 +8716,31 @@
       <c r="EL34" s="96"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="199"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147">
+      <c r="B35" s="141"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152">
         <v>43293</v>
       </c>
-      <c r="I35" s="147">
+      <c r="I35" s="152">
         <v>43294</v>
       </c>
-      <c r="J35" s="147">
+      <c r="J35" s="152">
         <v>43293</v>
       </c>
-      <c r="K35" s="147">
+      <c r="K35" s="152">
         <v>43144</v>
       </c>
-      <c r="L35" s="149"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="155"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="159"/>
+      <c r="R35" s="162"/>
       <c r="S35" s="84"/>
       <c r="T35" s="87"/>
       <c r="U35" s="86"/>
@@ -8867,23 +8867,23 @@
       <c r="EL35" s="95"/>
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
-      <c r="B36" s="200"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="142"/>
-      <c r="Q36" s="158"/>
-      <c r="R36" s="156"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="163"/>
       <c r="S36" s="84"/>
       <c r="T36" s="85"/>
       <c r="U36" s="85"/>
@@ -9012,31 +9012,31 @@
       <c r="EL36" s="96"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="199"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147">
+      <c r="B37" s="141"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152">
         <v>43293</v>
       </c>
-      <c r="I37" s="147">
+      <c r="I37" s="152">
         <v>43294</v>
       </c>
-      <c r="J37" s="147">
+      <c r="J37" s="152">
         <v>43293</v>
       </c>
-      <c r="K37" s="147">
+      <c r="K37" s="152">
         <v>43144</v>
       </c>
-      <c r="L37" s="149"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="155"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="159"/>
+      <c r="R37" s="162"/>
       <c r="S37" s="84"/>
       <c r="T37" s="87"/>
       <c r="U37" s="86"/>
@@ -9163,23 +9163,23 @@
       <c r="EL37" s="95"/>
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
-      <c r="B38" s="200"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="152"/>
-      <c r="P38" s="142"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="156"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="149"/>
+      <c r="Q38" s="160"/>
+      <c r="R38" s="163"/>
       <c r="S38" s="84"/>
       <c r="T38" s="85"/>
       <c r="U38" s="85"/>
@@ -9308,33 +9308,33 @@
       <c r="EL38" s="96"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="199"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="145" t="s">
+      <c r="B39" s="141"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="141"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147">
+      <c r="F39" s="148"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152">
         <v>43293</v>
       </c>
-      <c r="I39" s="147">
+      <c r="I39" s="152">
         <v>43294</v>
       </c>
-      <c r="J39" s="147">
+      <c r="J39" s="152">
         <v>43293</v>
       </c>
-      <c r="K39" s="147">
+      <c r="K39" s="152">
         <v>43144</v>
       </c>
-      <c r="L39" s="149"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="157"/>
-      <c r="R39" s="155"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="162"/>
       <c r="S39" s="84"/>
       <c r="T39" s="87"/>
       <c r="U39" s="86"/>
@@ -9461,23 +9461,23 @@
       <c r="EL39" s="95"/>
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
-      <c r="B40" s="200"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="152"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="156"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="158"/>
+      <c r="P40" s="149"/>
+      <c r="Q40" s="160"/>
+      <c r="R40" s="163"/>
       <c r="S40" s="84"/>
       <c r="T40" s="85"/>
       <c r="U40" s="85"/>
@@ -9606,31 +9606,31 @@
       <c r="EL40" s="96"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="199"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147">
+      <c r="B41" s="141"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152">
         <v>43293</v>
       </c>
-      <c r="I41" s="147">
+      <c r="I41" s="152">
         <v>43294</v>
       </c>
-      <c r="J41" s="147">
+      <c r="J41" s="152">
         <v>43293</v>
       </c>
-      <c r="K41" s="147">
+      <c r="K41" s="152">
         <v>43144</v>
       </c>
-      <c r="L41" s="149"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="157"/>
-      <c r="R41" s="155"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="150"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="159"/>
+      <c r="R41" s="162"/>
       <c r="S41" s="84"/>
       <c r="T41" s="87"/>
       <c r="U41" s="86"/>
@@ -9757,23 +9757,23 @@
       <c r="EL41" s="95"/>
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
-      <c r="B42" s="200"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="152"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="158"/>
-      <c r="R42" s="156"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="149"/>
+      <c r="Q42" s="160"/>
+      <c r="R42" s="163"/>
       <c r="S42" s="84"/>
       <c r="T42" s="85"/>
       <c r="U42" s="85"/>
@@ -9902,37 +9902,37 @@
       <c r="EL42" s="96"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="199" t="s">
+      <c r="B43" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="153"/>
-      <c r="E43" s="145" t="s">
+      <c r="D43" s="146"/>
+      <c r="E43" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147">
+      <c r="F43" s="148"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152">
         <v>43295</v>
       </c>
-      <c r="I43" s="147">
+      <c r="I43" s="152">
         <v>43296</v>
       </c>
-      <c r="J43" s="147">
+      <c r="J43" s="152">
         <v>43144</v>
       </c>
-      <c r="K43" s="147">
+      <c r="K43" s="152">
         <v>43145</v>
       </c>
-      <c r="L43" s="149"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="149"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="157"/>
-      <c r="R43" s="155"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="157"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="159"/>
+      <c r="R43" s="162"/>
       <c r="S43" s="84"/>
       <c r="T43" s="87"/>
       <c r="U43" s="86"/>
@@ -10061,23 +10061,23 @@
       <c r="EL43" s="95"/>
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
-      <c r="B44" s="200"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="152"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="142"/>
-      <c r="Q44" s="158"/>
-      <c r="R44" s="156"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="158"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="158"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="160"/>
+      <c r="R44" s="163"/>
       <c r="S44" s="84"/>
       <c r="T44" s="85"/>
       <c r="U44" s="85"/>
@@ -10204,33 +10204,33 @@
       <c r="EL44" s="96"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="199"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="145" t="s">
+      <c r="B45" s="141"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="141"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147">
+      <c r="F45" s="148"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152">
         <v>43295</v>
       </c>
-      <c r="I45" s="147">
+      <c r="I45" s="152">
         <v>43296</v>
       </c>
-      <c r="J45" s="147">
+      <c r="J45" s="152">
         <v>43144</v>
       </c>
-      <c r="K45" s="147">
+      <c r="K45" s="152">
         <v>43145</v>
       </c>
-      <c r="L45" s="149"/>
-      <c r="M45" s="151"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="157"/>
-      <c r="R45" s="155"/>
+      <c r="L45" s="150"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="150"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="159"/>
+      <c r="R45" s="162"/>
       <c r="S45" s="84"/>
       <c r="T45" s="87"/>
       <c r="U45" s="86"/>
@@ -10359,23 +10359,23 @@
       <c r="EL45" s="95"/>
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
-      <c r="B46" s="200"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="150"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="150"/>
-      <c r="O46" s="152"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="158"/>
-      <c r="R46" s="156"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="158"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="158"/>
+      <c r="P46" s="149"/>
+      <c r="Q46" s="160"/>
+      <c r="R46" s="163"/>
       <c r="S46" s="84"/>
       <c r="T46" s="85"/>
       <c r="U46" s="85"/>
@@ -10502,31 +10502,31 @@
       <c r="EL46" s="96"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="199"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147">
+      <c r="B47" s="141"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152">
         <v>43295</v>
       </c>
-      <c r="I47" s="147">
+      <c r="I47" s="152">
         <v>43296</v>
       </c>
-      <c r="J47" s="147">
+      <c r="J47" s="152">
         <v>43144</v>
       </c>
-      <c r="K47" s="147">
+      <c r="K47" s="152">
         <v>43145</v>
       </c>
-      <c r="L47" s="149"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="151"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="157"/>
-      <c r="R47" s="155"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="150"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="159"/>
+      <c r="R47" s="162"/>
       <c r="S47" s="84"/>
       <c r="T47" s="87"/>
       <c r="U47" s="86"/>
@@ -10655,23 +10655,23 @@
       <c r="EL47" s="95"/>
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
-      <c r="B48" s="200"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="148"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="150"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="158"/>
-      <c r="R48" s="156"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="158"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="158"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="160"/>
+      <c r="R48" s="163"/>
       <c r="S48" s="84"/>
       <c r="T48" s="85"/>
       <c r="U48" s="85"/>
@@ -10800,31 +10800,31 @@
       <c r="EL48" s="96"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="199"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="147">
+      <c r="B49" s="141"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152">
         <v>43295</v>
       </c>
-      <c r="I49" s="147">
+      <c r="I49" s="152">
         <v>43296</v>
       </c>
-      <c r="J49" s="147">
+      <c r="J49" s="152">
         <v>43144</v>
       </c>
-      <c r="K49" s="147">
+      <c r="K49" s="152">
         <v>43145</v>
       </c>
-      <c r="L49" s="149"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="141"/>
-      <c r="Q49" s="157"/>
-      <c r="R49" s="155"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="157"/>
+      <c r="P49" s="148"/>
+      <c r="Q49" s="159"/>
+      <c r="R49" s="162"/>
       <c r="S49" s="84"/>
       <c r="T49" s="87"/>
       <c r="U49" s="86"/>
@@ -10951,23 +10951,23 @@
       <c r="EL49" s="95"/>
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
-      <c r="B50" s="200"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="152"/>
-      <c r="N50" s="150"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="158"/>
-      <c r="R50" s="156"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="153"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="158"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="149"/>
+      <c r="Q50" s="160"/>
+      <c r="R50" s="163"/>
       <c r="S50" s="84"/>
       <c r="T50" s="85"/>
       <c r="U50" s="85"/>
@@ -11098,31 +11098,31 @@
       <c r="EL50" s="96"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="199"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147">
+      <c r="B51" s="141"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152">
         <v>43295</v>
       </c>
-      <c r="I51" s="147">
+      <c r="I51" s="152">
         <v>43296</v>
       </c>
-      <c r="J51" s="147">
+      <c r="J51" s="152">
         <v>43144</v>
       </c>
-      <c r="K51" s="147">
+      <c r="K51" s="152">
         <v>43145</v>
       </c>
-      <c r="L51" s="149"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="149"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="157"/>
-      <c r="R51" s="155"/>
+      <c r="L51" s="150"/>
+      <c r="M51" s="157"/>
+      <c r="N51" s="150"/>
+      <c r="O51" s="157"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="159"/>
+      <c r="R51" s="162"/>
       <c r="S51" s="84"/>
       <c r="T51" s="87"/>
       <c r="U51" s="86"/>
@@ -11249,23 +11249,23 @@
       <c r="EL51" s="95"/>
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
-      <c r="B52" s="200"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="148"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="148"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="148"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="152"/>
-      <c r="N52" s="150"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="158"/>
-      <c r="R52" s="156"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="151"/>
+      <c r="M52" s="158"/>
+      <c r="N52" s="151"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="149"/>
+      <c r="Q52" s="160"/>
+      <c r="R52" s="163"/>
       <c r="S52" s="84"/>
       <c r="T52" s="85"/>
       <c r="U52" s="85"/>
@@ -11394,33 +11394,33 @@
       <c r="EL52" s="96"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="199"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="145" t="s">
+      <c r="B53" s="141"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="141"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147">
+      <c r="F53" s="148"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152">
         <v>43295</v>
       </c>
-      <c r="I53" s="147">
+      <c r="I53" s="152">
         <v>43296</v>
       </c>
-      <c r="J53" s="147">
+      <c r="J53" s="152">
         <v>43144</v>
       </c>
-      <c r="K53" s="147">
+      <c r="K53" s="152">
         <v>43145</v>
       </c>
-      <c r="L53" s="149"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="149"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="157"/>
-      <c r="R53" s="155"/>
+      <c r="L53" s="150"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="150"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="159"/>
+      <c r="R53" s="162"/>
       <c r="S53" s="84"/>
       <c r="T53" s="87"/>
       <c r="U53" s="86"/>
@@ -11549,23 +11549,23 @@
       <c r="EL53" s="95"/>
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
-      <c r="B54" s="200"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="148"/>
-      <c r="K54" s="148"/>
-      <c r="L54" s="150"/>
-      <c r="M54" s="152"/>
-      <c r="N54" s="150"/>
-      <c r="O54" s="152"/>
-      <c r="P54" s="142"/>
-      <c r="Q54" s="158"/>
-      <c r="R54" s="156"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="151"/>
+      <c r="M54" s="158"/>
+      <c r="N54" s="151"/>
+      <c r="O54" s="158"/>
+      <c r="P54" s="149"/>
+      <c r="Q54" s="160"/>
+      <c r="R54" s="163"/>
       <c r="S54" s="84"/>
       <c r="T54" s="85"/>
       <c r="U54" s="85"/>
@@ -11694,35 +11694,35 @@
       <c r="EL54" s="96"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="199"/>
-      <c r="C55" s="191" t="s">
+      <c r="B55" s="141"/>
+      <c r="C55" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="153"/>
-      <c r="E55" s="145" t="s">
+      <c r="D55" s="146"/>
+      <c r="E55" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="141"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147">
+      <c r="F55" s="148"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152">
         <v>43295</v>
       </c>
-      <c r="I55" s="147">
+      <c r="I55" s="152">
         <v>43296</v>
       </c>
-      <c r="J55" s="147">
+      <c r="J55" s="152">
         <v>43144</v>
       </c>
-      <c r="K55" s="147">
+      <c r="K55" s="152">
         <v>43145</v>
       </c>
-      <c r="L55" s="149"/>
-      <c r="M55" s="151"/>
-      <c r="N55" s="149"/>
-      <c r="O55" s="151"/>
-      <c r="P55" s="141"/>
-      <c r="Q55" s="157"/>
-      <c r="R55" s="155"/>
+      <c r="L55" s="150"/>
+      <c r="M55" s="157"/>
+      <c r="N55" s="150"/>
+      <c r="O55" s="157"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="159"/>
+      <c r="R55" s="162"/>
       <c r="S55" s="84"/>
       <c r="T55" s="87"/>
       <c r="U55" s="86"/>
@@ -11849,23 +11849,23 @@
       <c r="EL55" s="95"/>
     </row>
     <row r="56" spans="2:142" ht="15.75" customHeight="1">
-      <c r="B56" s="200"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="148"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="152"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="158"/>
-      <c r="R56" s="156"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="151"/>
+      <c r="M56" s="158"/>
+      <c r="N56" s="151"/>
+      <c r="O56" s="158"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="160"/>
+      <c r="R56" s="163"/>
       <c r="S56" s="84"/>
       <c r="T56" s="85"/>
       <c r="U56" s="85"/>
@@ -11996,33 +11996,33 @@
       <c r="EL56" s="96"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="199"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="145" t="s">
+      <c r="B57" s="141"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="F57" s="141"/>
-      <c r="G57" s="147"/>
-      <c r="H57" s="147">
+      <c r="F57" s="148"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152">
         <v>43295</v>
       </c>
-      <c r="I57" s="147">
+      <c r="I57" s="152">
         <v>43296</v>
       </c>
-      <c r="J57" s="147">
+      <c r="J57" s="152">
         <v>43144</v>
       </c>
-      <c r="K57" s="147">
+      <c r="K57" s="152">
         <v>43145</v>
       </c>
-      <c r="L57" s="149"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="149"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="141"/>
-      <c r="Q57" s="157"/>
-      <c r="R57" s="155"/>
+      <c r="L57" s="150"/>
+      <c r="M57" s="157"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="157"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="159"/>
+      <c r="R57" s="162"/>
       <c r="S57" s="84"/>
       <c r="T57" s="87"/>
       <c r="U57" s="86"/>
@@ -12149,23 +12149,23 @@
       <c r="EL57" s="95"/>
     </row>
     <row r="58" spans="2:142" ht="19.5" customHeight="1">
-      <c r="B58" s="200"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="148"/>
-      <c r="J58" s="148"/>
-      <c r="K58" s="148"/>
-      <c r="L58" s="150"/>
-      <c r="M58" s="152"/>
-      <c r="N58" s="150"/>
-      <c r="O58" s="152"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="158"/>
-      <c r="R58" s="156"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="153"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="151"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="151"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="160"/>
+      <c r="R58" s="163"/>
       <c r="S58" s="84"/>
       <c r="T58" s="85"/>
       <c r="U58" s="85"/>
@@ -12296,33 +12296,33 @@
       <c r="EL58" s="96"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="199"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="145" t="s">
+      <c r="B59" s="141"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="141"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147">
+      <c r="F59" s="148"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152">
         <v>43295</v>
       </c>
-      <c r="I59" s="147">
+      <c r="I59" s="152">
         <v>43296</v>
       </c>
-      <c r="J59" s="147">
+      <c r="J59" s="152">
         <v>43144</v>
       </c>
-      <c r="K59" s="147">
+      <c r="K59" s="152">
         <v>43145</v>
       </c>
-      <c r="L59" s="149"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="149"/>
-      <c r="O59" s="151"/>
-      <c r="P59" s="141"/>
-      <c r="Q59" s="157"/>
-      <c r="R59" s="155"/>
+      <c r="L59" s="150"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="150"/>
+      <c r="O59" s="157"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="159"/>
+      <c r="R59" s="162"/>
       <c r="S59" s="84"/>
       <c r="T59" s="87"/>
       <c r="U59" s="86"/>
@@ -12453,23 +12453,23 @@
       <c r="EL59" s="95"/>
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
-      <c r="B60" s="200"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="152"/>
-      <c r="N60" s="150"/>
-      <c r="O60" s="152"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="158"/>
-      <c r="R60" s="156"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="151"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="151"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="149"/>
+      <c r="Q60" s="160"/>
+      <c r="R60" s="163"/>
       <c r="S60" s="84"/>
       <c r="T60" s="85"/>
       <c r="U60" s="85"/>
@@ -12596,33 +12596,33 @@
       <c r="EL60" s="96"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="199"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="145" t="s">
+      <c r="B61" s="141"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="141"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147">
+      <c r="F61" s="148"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152">
         <v>43295</v>
       </c>
-      <c r="I61" s="147">
+      <c r="I61" s="152">
         <v>43296</v>
       </c>
-      <c r="J61" s="147">
+      <c r="J61" s="152">
         <v>43144</v>
       </c>
-      <c r="K61" s="147">
+      <c r="K61" s="152">
         <v>43145</v>
       </c>
-      <c r="L61" s="149"/>
-      <c r="M61" s="151"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="151"/>
-      <c r="P61" s="141"/>
-      <c r="Q61" s="157"/>
-      <c r="R61" s="155"/>
+      <c r="L61" s="150"/>
+      <c r="M61" s="157"/>
+      <c r="N61" s="150"/>
+      <c r="O61" s="157"/>
+      <c r="P61" s="148"/>
+      <c r="Q61" s="159"/>
+      <c r="R61" s="162"/>
       <c r="S61" s="84"/>
       <c r="T61" s="87"/>
       <c r="U61" s="86"/>
@@ -12749,23 +12749,23 @@
       <c r="EL61" s="95"/>
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
-      <c r="B62" s="200"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="148"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="152"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="152"/>
-      <c r="P62" s="142"/>
-      <c r="Q62" s="158"/>
-      <c r="R62" s="156"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="151"/>
+      <c r="M62" s="158"/>
+      <c r="N62" s="151"/>
+      <c r="O62" s="158"/>
+      <c r="P62" s="149"/>
+      <c r="Q62" s="160"/>
+      <c r="R62" s="163"/>
       <c r="S62" s="84"/>
       <c r="T62" s="85"/>
       <c r="U62" s="85"/>
@@ -12892,35 +12892,35 @@
       <c r="EL62" s="96"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="199" t="s">
+      <c r="B63" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="191" t="s">
+      <c r="C63" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="153"/>
-      <c r="E63" s="145"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147">
+      <c r="D63" s="146"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152">
         <v>43291</v>
       </c>
-      <c r="I63" s="147">
+      <c r="I63" s="152">
         <v>43298</v>
       </c>
-      <c r="J63" s="147">
+      <c r="J63" s="152">
         <v>43146</v>
       </c>
-      <c r="K63" s="147">
+      <c r="K63" s="152">
         <v>43147</v>
       </c>
-      <c r="L63" s="149"/>
-      <c r="M63" s="151"/>
-      <c r="N63" s="149"/>
-      <c r="O63" s="151"/>
-      <c r="P63" s="141"/>
-      <c r="Q63" s="157"/>
-      <c r="R63" s="155"/>
+      <c r="L63" s="150"/>
+      <c r="M63" s="157"/>
+      <c r="N63" s="150"/>
+      <c r="O63" s="157"/>
+      <c r="P63" s="148"/>
+      <c r="Q63" s="159"/>
+      <c r="R63" s="162"/>
       <c r="S63" s="84"/>
       <c r="T63" s="87"/>
       <c r="U63" s="86"/>
@@ -13047,23 +13047,23 @@
       <c r="EL63" s="95"/>
     </row>
     <row r="64" spans="2:142" ht="15" customHeight="1">
-      <c r="B64" s="200"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="142"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="150"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="150"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="142"/>
-      <c r="Q64" s="158"/>
-      <c r="R64" s="156"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="151"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="151"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="149"/>
+      <c r="Q64" s="160"/>
+      <c r="R64" s="163"/>
       <c r="S64" s="84"/>
       <c r="T64" s="85"/>
       <c r="U64" s="85"/>
@@ -13190,31 +13190,31 @@
       <c r="EL64" s="96"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="199"/>
-      <c r="C65" s="191"/>
-      <c r="D65" s="153"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147">
+      <c r="B65" s="141"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152">
         <v>43291</v>
       </c>
-      <c r="I65" s="147">
+      <c r="I65" s="152">
         <v>43298</v>
       </c>
-      <c r="J65" s="147">
+      <c r="J65" s="152">
         <v>43146</v>
       </c>
-      <c r="K65" s="147">
+      <c r="K65" s="152">
         <v>43147</v>
       </c>
-      <c r="L65" s="149"/>
-      <c r="M65" s="151"/>
-      <c r="N65" s="149"/>
-      <c r="O65" s="151"/>
-      <c r="P65" s="141"/>
-      <c r="Q65" s="157"/>
-      <c r="R65" s="155"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="150"/>
+      <c r="O65" s="157"/>
+      <c r="P65" s="148"/>
+      <c r="Q65" s="159"/>
+      <c r="R65" s="162"/>
       <c r="S65" s="84"/>
       <c r="T65" s="87"/>
       <c r="U65" s="86"/>
@@ -13341,23 +13341,23 @@
       <c r="EL65" s="95"/>
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
-      <c r="B66" s="200"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="148"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="152"/>
-      <c r="N66" s="150"/>
-      <c r="O66" s="152"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="158"/>
-      <c r="R66" s="156"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="151"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="151"/>
+      <c r="O66" s="158"/>
+      <c r="P66" s="149"/>
+      <c r="Q66" s="160"/>
+      <c r="R66" s="163"/>
       <c r="S66" s="84"/>
       <c r="T66" s="85"/>
       <c r="U66" s="85"/>
@@ -13484,31 +13484,31 @@
       <c r="EL66" s="96"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="199"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="147">
+      <c r="B67" s="141"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152">
         <v>43291</v>
       </c>
-      <c r="I67" s="147">
+      <c r="I67" s="152">
         <v>43298</v>
       </c>
-      <c r="J67" s="147">
+      <c r="J67" s="152">
         <v>43146</v>
       </c>
-      <c r="K67" s="147">
+      <c r="K67" s="152">
         <v>43147</v>
       </c>
-      <c r="L67" s="149"/>
-      <c r="M67" s="151"/>
-      <c r="N67" s="149"/>
-      <c r="O67" s="151"/>
-      <c r="P67" s="141"/>
-      <c r="Q67" s="157"/>
-      <c r="R67" s="155"/>
+      <c r="L67" s="150"/>
+      <c r="M67" s="157"/>
+      <c r="N67" s="150"/>
+      <c r="O67" s="157"/>
+      <c r="P67" s="148"/>
+      <c r="Q67" s="159"/>
+      <c r="R67" s="162"/>
       <c r="S67" s="84"/>
       <c r="T67" s="87"/>
       <c r="U67" s="86"/>
@@ -13635,23 +13635,23 @@
       <c r="EL67" s="95"/>
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
-      <c r="B68" s="200"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="150"/>
-      <c r="M68" s="152"/>
-      <c r="N68" s="150"/>
-      <c r="O68" s="152"/>
-      <c r="P68" s="142"/>
-      <c r="Q68" s="158"/>
-      <c r="R68" s="156"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="143"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="153"/>
+      <c r="H68" s="153"/>
+      <c r="I68" s="153"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="151"/>
+      <c r="M68" s="158"/>
+      <c r="N68" s="151"/>
+      <c r="O68" s="158"/>
+      <c r="P68" s="149"/>
+      <c r="Q68" s="160"/>
+      <c r="R68" s="163"/>
       <c r="S68" s="84"/>
       <c r="T68" s="85"/>
       <c r="U68" s="85"/>
@@ -13778,33 +13778,33 @@
       <c r="EL68" s="96"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="199"/>
-      <c r="C69" s="191" t="s">
+      <c r="B69" s="141"/>
+      <c r="C69" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="153"/>
-      <c r="E69" s="145"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="147">
+      <c r="D69" s="146"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152">
         <v>43291</v>
       </c>
-      <c r="I69" s="147">
+      <c r="I69" s="152">
         <v>43298</v>
       </c>
-      <c r="J69" s="147">
+      <c r="J69" s="152">
         <v>43146</v>
       </c>
-      <c r="K69" s="147">
+      <c r="K69" s="152">
         <v>43147</v>
       </c>
-      <c r="L69" s="149"/>
-      <c r="M69" s="151"/>
-      <c r="N69" s="149"/>
-      <c r="O69" s="151"/>
-      <c r="P69" s="141"/>
-      <c r="Q69" s="157"/>
-      <c r="R69" s="155"/>
+      <c r="L69" s="150"/>
+      <c r="M69" s="157"/>
+      <c r="N69" s="150"/>
+      <c r="O69" s="157"/>
+      <c r="P69" s="148"/>
+      <c r="Q69" s="159"/>
+      <c r="R69" s="162"/>
       <c r="S69" s="84"/>
       <c r="T69" s="87"/>
       <c r="U69" s="86"/>
@@ -13931,23 +13931,23 @@
       <c r="EL69" s="95"/>
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
-      <c r="B70" s="200"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="146"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="148"/>
-      <c r="L70" s="150"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="150"/>
-      <c r="O70" s="152"/>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="158"/>
-      <c r="R70" s="156"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="151"/>
+      <c r="M70" s="158"/>
+      <c r="N70" s="151"/>
+      <c r="O70" s="158"/>
+      <c r="P70" s="149"/>
+      <c r="Q70" s="160"/>
+      <c r="R70" s="163"/>
       <c r="S70" s="84"/>
       <c r="T70" s="85"/>
       <c r="U70" s="85"/>
@@ -14074,29 +14074,29 @@
       <c r="EL70" s="96"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="199"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="153"/>
-      <c r="E71" s="145"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147">
+      <c r="B71" s="141"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152">
         <v>43291</v>
       </c>
-      <c r="I71" s="147">
+      <c r="I71" s="152">
         <v>43298</v>
       </c>
-      <c r="J71" s="147">
+      <c r="J71" s="152">
         <v>43146</v>
       </c>
-      <c r="K71" s="159"/>
-      <c r="L71" s="149"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="149"/>
-      <c r="O71" s="151"/>
-      <c r="P71" s="141"/>
-      <c r="Q71" s="157"/>
-      <c r="R71" s="155"/>
+      <c r="K71" s="164"/>
+      <c r="L71" s="150"/>
+      <c r="M71" s="157"/>
+      <c r="N71" s="150"/>
+      <c r="O71" s="157"/>
+      <c r="P71" s="148"/>
+      <c r="Q71" s="159"/>
+      <c r="R71" s="162"/>
       <c r="S71" s="84"/>
       <c r="T71" s="87"/>
       <c r="U71" s="86"/>
@@ -14223,23 +14223,23 @@
       <c r="EL71" s="95"/>
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
-      <c r="B72" s="200"/>
-      <c r="C72" s="191"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="150"/>
-      <c r="M72" s="152"/>
-      <c r="N72" s="150"/>
-      <c r="O72" s="152"/>
-      <c r="P72" s="142"/>
-      <c r="Q72" s="158"/>
-      <c r="R72" s="156"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="143"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="149"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="165"/>
+      <c r="L72" s="151"/>
+      <c r="M72" s="158"/>
+      <c r="N72" s="151"/>
+      <c r="O72" s="158"/>
+      <c r="P72" s="149"/>
+      <c r="Q72" s="160"/>
+      <c r="R72" s="163"/>
       <c r="S72" s="84"/>
       <c r="T72" s="85"/>
       <c r="U72" s="85"/>
@@ -14366,29 +14366,29 @@
       <c r="EL72" s="96"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="199"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="153"/>
-      <c r="E73" s="145"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="147">
+      <c r="B73" s="141"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="146"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="148"/>
+      <c r="G73" s="152"/>
+      <c r="H73" s="152">
         <v>43291</v>
       </c>
-      <c r="I73" s="147">
+      <c r="I73" s="152">
         <v>43298</v>
       </c>
-      <c r="J73" s="147">
+      <c r="J73" s="152">
         <v>43146</v>
       </c>
-      <c r="K73" s="159"/>
-      <c r="L73" s="149"/>
-      <c r="M73" s="151"/>
-      <c r="N73" s="149"/>
-      <c r="O73" s="151"/>
-      <c r="P73" s="141"/>
-      <c r="Q73" s="157"/>
-      <c r="R73" s="155"/>
+      <c r="K73" s="164"/>
+      <c r="L73" s="150"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="150"/>
+      <c r="O73" s="157"/>
+      <c r="P73" s="148"/>
+      <c r="Q73" s="159"/>
+      <c r="R73" s="162"/>
       <c r="S73" s="84"/>
       <c r="T73" s="87"/>
       <c r="U73" s="86"/>
@@ -14515,23 +14515,23 @@
       <c r="EL73" s="95"/>
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
-      <c r="B74" s="200"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="146"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="148"/>
-      <c r="J74" s="148"/>
-      <c r="K74" s="160"/>
-      <c r="L74" s="150"/>
-      <c r="M74" s="152"/>
-      <c r="N74" s="150"/>
-      <c r="O74" s="152"/>
-      <c r="P74" s="142"/>
-      <c r="Q74" s="158"/>
-      <c r="R74" s="156"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="149"/>
+      <c r="G74" s="153"/>
+      <c r="H74" s="153"/>
+      <c r="I74" s="153"/>
+      <c r="J74" s="153"/>
+      <c r="K74" s="165"/>
+      <c r="L74" s="151"/>
+      <c r="M74" s="158"/>
+      <c r="N74" s="151"/>
+      <c r="O74" s="158"/>
+      <c r="P74" s="149"/>
+      <c r="Q74" s="160"/>
+      <c r="R74" s="163"/>
       <c r="S74" s="84"/>
       <c r="T74" s="85"/>
       <c r="U74" s="85"/>
@@ -14658,31 +14658,31 @@
       <c r="EL74" s="96"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="199"/>
-      <c r="C75" s="191" t="s">
+      <c r="B75" s="141"/>
+      <c r="C75" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="153"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="141"/>
-      <c r="G75" s="147"/>
-      <c r="H75" s="147">
+      <c r="D75" s="146"/>
+      <c r="E75" s="144"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="152">
         <v>43291</v>
       </c>
-      <c r="I75" s="147">
+      <c r="I75" s="152">
         <v>43298</v>
       </c>
-      <c r="J75" s="147">
+      <c r="J75" s="152">
         <v>43146</v>
       </c>
-      <c r="K75" s="159"/>
-      <c r="L75" s="149"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="149"/>
-      <c r="O75" s="151"/>
-      <c r="P75" s="141"/>
-      <c r="Q75" s="157"/>
-      <c r="R75" s="155"/>
+      <c r="K75" s="164"/>
+      <c r="L75" s="150"/>
+      <c r="M75" s="157"/>
+      <c r="N75" s="150"/>
+      <c r="O75" s="157"/>
+      <c r="P75" s="148"/>
+      <c r="Q75" s="159"/>
+      <c r="R75" s="162"/>
       <c r="S75" s="84"/>
       <c r="T75" s="87"/>
       <c r="U75" s="86"/>
@@ -14809,23 +14809,23 @@
       <c r="EL75" s="95"/>
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
-      <c r="B76" s="200"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="142"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="148"/>
-      <c r="K76" s="160"/>
-      <c r="L76" s="150"/>
-      <c r="M76" s="152"/>
-      <c r="N76" s="150"/>
-      <c r="O76" s="152"/>
-      <c r="P76" s="142"/>
-      <c r="Q76" s="158"/>
-      <c r="R76" s="156"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="145"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="153"/>
+      <c r="H76" s="153"/>
+      <c r="I76" s="153"/>
+      <c r="J76" s="153"/>
+      <c r="K76" s="165"/>
+      <c r="L76" s="151"/>
+      <c r="M76" s="158"/>
+      <c r="N76" s="151"/>
+      <c r="O76" s="158"/>
+      <c r="P76" s="149"/>
+      <c r="Q76" s="160"/>
+      <c r="R76" s="163"/>
       <c r="S76" s="84"/>
       <c r="T76" s="85"/>
       <c r="U76" s="85"/>
@@ -14952,29 +14952,29 @@
       <c r="EL76" s="96"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="199"/>
-      <c r="C77" s="191"/>
-      <c r="D77" s="153"/>
-      <c r="E77" s="145"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="147">
+      <c r="B77" s="141"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="146"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="152"/>
+      <c r="H77" s="152">
         <v>43291</v>
       </c>
-      <c r="I77" s="147">
+      <c r="I77" s="152">
         <v>43298</v>
       </c>
-      <c r="J77" s="147">
+      <c r="J77" s="152">
         <v>43146</v>
       </c>
-      <c r="K77" s="159"/>
-      <c r="L77" s="149"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="149"/>
-      <c r="O77" s="151"/>
-      <c r="P77" s="141"/>
-      <c r="Q77" s="157"/>
-      <c r="R77" s="155"/>
+      <c r="K77" s="164"/>
+      <c r="L77" s="150"/>
+      <c r="M77" s="157"/>
+      <c r="N77" s="150"/>
+      <c r="O77" s="157"/>
+      <c r="P77" s="148"/>
+      <c r="Q77" s="159"/>
+      <c r="R77" s="162"/>
       <c r="S77" s="84"/>
       <c r="T77" s="87"/>
       <c r="U77" s="86"/>
@@ -15101,23 +15101,23 @@
       <c r="EL77" s="95"/>
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
-      <c r="B78" s="200"/>
-      <c r="C78" s="191"/>
-      <c r="D78" s="154"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="148"/>
-      <c r="I78" s="148"/>
-      <c r="J78" s="148"/>
-      <c r="K78" s="160"/>
-      <c r="L78" s="150"/>
-      <c r="M78" s="152"/>
-      <c r="N78" s="150"/>
-      <c r="O78" s="152"/>
-      <c r="P78" s="142"/>
-      <c r="Q78" s="158"/>
-      <c r="R78" s="156"/>
+      <c r="B78" s="142"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="147"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="149"/>
+      <c r="G78" s="153"/>
+      <c r="H78" s="153"/>
+      <c r="I78" s="153"/>
+      <c r="J78" s="153"/>
+      <c r="K78" s="165"/>
+      <c r="L78" s="151"/>
+      <c r="M78" s="158"/>
+      <c r="N78" s="151"/>
+      <c r="O78" s="158"/>
+      <c r="P78" s="149"/>
+      <c r="Q78" s="160"/>
+      <c r="R78" s="163"/>
       <c r="S78" s="84"/>
       <c r="T78" s="85"/>
       <c r="U78" s="85"/>
@@ -15244,29 +15244,29 @@
       <c r="EL78" s="96"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="199"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="153"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="141"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147">
+      <c r="B79" s="141"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="152"/>
+      <c r="H79" s="152">
         <v>43291</v>
       </c>
-      <c r="I79" s="147">
+      <c r="I79" s="152">
         <v>43298</v>
       </c>
-      <c r="J79" s="147">
+      <c r="J79" s="152">
         <v>43146</v>
       </c>
-      <c r="K79" s="159"/>
-      <c r="L79" s="149"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="149"/>
-      <c r="O79" s="151"/>
-      <c r="P79" s="141"/>
-      <c r="Q79" s="157"/>
-      <c r="R79" s="155"/>
+      <c r="K79" s="164"/>
+      <c r="L79" s="150"/>
+      <c r="M79" s="157"/>
+      <c r="N79" s="150"/>
+      <c r="O79" s="157"/>
+      <c r="P79" s="148"/>
+      <c r="Q79" s="159"/>
+      <c r="R79" s="162"/>
       <c r="S79" s="84"/>
       <c r="T79" s="87"/>
       <c r="U79" s="86"/>
@@ -15393,23 +15393,23 @@
       <c r="EL79" s="95"/>
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
-      <c r="B80" s="200"/>
-      <c r="C80" s="191"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="142"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="148"/>
-      <c r="I80" s="148"/>
-      <c r="J80" s="148"/>
-      <c r="K80" s="160"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="152"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="152"/>
-      <c r="P80" s="142"/>
-      <c r="Q80" s="158"/>
-      <c r="R80" s="156"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="149"/>
+      <c r="G80" s="153"/>
+      <c r="H80" s="153"/>
+      <c r="I80" s="153"/>
+      <c r="J80" s="153"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="151"/>
+      <c r="M80" s="158"/>
+      <c r="N80" s="151"/>
+      <c r="O80" s="158"/>
+      <c r="P80" s="149"/>
+      <c r="Q80" s="160"/>
+      <c r="R80" s="163"/>
       <c r="S80" s="84"/>
       <c r="T80" s="85"/>
       <c r="U80" s="85"/>
@@ -15536,29 +15536,29 @@
       <c r="EL80" s="96"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="199"/>
-      <c r="C81" s="191"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="145"/>
-      <c r="F81" s="141"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="147">
+      <c r="B81" s="141"/>
+      <c r="C81" s="143"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="152"/>
+      <c r="H81" s="152">
         <v>43291</v>
       </c>
-      <c r="I81" s="147">
+      <c r="I81" s="152">
         <v>43298</v>
       </c>
-      <c r="J81" s="147">
+      <c r="J81" s="152">
         <v>43146</v>
       </c>
-      <c r="K81" s="159"/>
-      <c r="L81" s="149"/>
-      <c r="M81" s="151"/>
-      <c r="N81" s="149"/>
-      <c r="O81" s="151"/>
-      <c r="P81" s="141"/>
-      <c r="Q81" s="157"/>
-      <c r="R81" s="155"/>
+      <c r="K81" s="164"/>
+      <c r="L81" s="150"/>
+      <c r="M81" s="157"/>
+      <c r="N81" s="150"/>
+      <c r="O81" s="157"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="159"/>
+      <c r="R81" s="162"/>
       <c r="S81" s="84"/>
       <c r="T81" s="87"/>
       <c r="U81" s="86"/>
@@ -15685,23 +15685,23 @@
       <c r="EL81" s="95"/>
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
-      <c r="B82" s="200"/>
-      <c r="C82" s="191"/>
-      <c r="D82" s="154"/>
-      <c r="E82" s="146"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="148"/>
-      <c r="J82" s="148"/>
-      <c r="K82" s="160"/>
-      <c r="L82" s="150"/>
-      <c r="M82" s="152"/>
-      <c r="N82" s="150"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="142"/>
-      <c r="Q82" s="158"/>
-      <c r="R82" s="156"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="143"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="149"/>
+      <c r="G82" s="153"/>
+      <c r="H82" s="153"/>
+      <c r="I82" s="153"/>
+      <c r="J82" s="153"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="151"/>
+      <c r="M82" s="158"/>
+      <c r="N82" s="151"/>
+      <c r="O82" s="158"/>
+      <c r="P82" s="149"/>
+      <c r="Q82" s="160"/>
+      <c r="R82" s="163"/>
       <c r="S82" s="84"/>
       <c r="T82" s="85"/>
       <c r="U82" s="85"/>
@@ -15828,29 +15828,29 @@
       <c r="EL82" s="96"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="199"/>
-      <c r="C83" s="191"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="145"/>
-      <c r="F83" s="141"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147">
+      <c r="B83" s="141"/>
+      <c r="C83" s="143"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="152"/>
+      <c r="H83" s="152">
         <v>43291</v>
       </c>
-      <c r="I83" s="147">
+      <c r="I83" s="152">
         <v>43298</v>
       </c>
-      <c r="J83" s="147">
+      <c r="J83" s="152">
         <v>43146</v>
       </c>
-      <c r="K83" s="159"/>
-      <c r="L83" s="149"/>
-      <c r="M83" s="151"/>
-      <c r="N83" s="149"/>
-      <c r="O83" s="151"/>
-      <c r="P83" s="141"/>
-      <c r="Q83" s="157"/>
-      <c r="R83" s="155"/>
+      <c r="K83" s="164"/>
+      <c r="L83" s="150"/>
+      <c r="M83" s="157"/>
+      <c r="N83" s="150"/>
+      <c r="O83" s="157"/>
+      <c r="P83" s="148"/>
+      <c r="Q83" s="159"/>
+      <c r="R83" s="162"/>
       <c r="S83" s="84"/>
       <c r="T83" s="87"/>
       <c r="U83" s="86"/>
@@ -15977,23 +15977,23 @@
       <c r="EL83" s="95"/>
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
-      <c r="B84" s="200"/>
-      <c r="C84" s="191"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="142"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="148"/>
-      <c r="K84" s="160"/>
-      <c r="L84" s="150"/>
-      <c r="M84" s="152"/>
-      <c r="N84" s="150"/>
-      <c r="O84" s="152"/>
-      <c r="P84" s="142"/>
-      <c r="Q84" s="158"/>
-      <c r="R84" s="156"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="143"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="145"/>
+      <c r="F84" s="149"/>
+      <c r="G84" s="153"/>
+      <c r="H84" s="153"/>
+      <c r="I84" s="153"/>
+      <c r="J84" s="153"/>
+      <c r="K84" s="165"/>
+      <c r="L84" s="151"/>
+      <c r="M84" s="158"/>
+      <c r="N84" s="151"/>
+      <c r="O84" s="158"/>
+      <c r="P84" s="149"/>
+      <c r="Q84" s="160"/>
+      <c r="R84" s="163"/>
       <c r="S84" s="84"/>
       <c r="T84" s="85"/>
       <c r="U84" s="85"/>
@@ -16120,29 +16120,29 @@
       <c r="EL84" s="96"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="199"/>
-      <c r="C85" s="191"/>
-      <c r="D85" s="153"/>
-      <c r="E85" s="145"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="147"/>
-      <c r="H85" s="147">
+      <c r="B85" s="141"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="152"/>
+      <c r="H85" s="152">
         <v>43291</v>
       </c>
-      <c r="I85" s="147">
+      <c r="I85" s="152">
         <v>43299</v>
       </c>
-      <c r="J85" s="147">
+      <c r="J85" s="152">
         <v>43146</v>
       </c>
-      <c r="K85" s="159"/>
-      <c r="L85" s="149"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="149"/>
-      <c r="O85" s="151"/>
-      <c r="P85" s="141"/>
-      <c r="Q85" s="157"/>
-      <c r="R85" s="155"/>
+      <c r="K85" s="164"/>
+      <c r="L85" s="150"/>
+      <c r="M85" s="157"/>
+      <c r="N85" s="150"/>
+      <c r="O85" s="157"/>
+      <c r="P85" s="148"/>
+      <c r="Q85" s="159"/>
+      <c r="R85" s="162"/>
       <c r="S85" s="84"/>
       <c r="T85" s="87"/>
       <c r="U85" s="86"/>
@@ -16269,23 +16269,23 @@
       <c r="EL85" s="95"/>
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
-      <c r="B86" s="200"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="146"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="148"/>
-      <c r="H86" s="148"/>
-      <c r="I86" s="148"/>
-      <c r="J86" s="148"/>
-      <c r="K86" s="160"/>
-      <c r="L86" s="150"/>
-      <c r="M86" s="152"/>
-      <c r="N86" s="150"/>
-      <c r="O86" s="152"/>
-      <c r="P86" s="142"/>
-      <c r="Q86" s="158"/>
-      <c r="R86" s="156"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="149"/>
+      <c r="G86" s="153"/>
+      <c r="H86" s="153"/>
+      <c r="I86" s="153"/>
+      <c r="J86" s="153"/>
+      <c r="K86" s="165"/>
+      <c r="L86" s="151"/>
+      <c r="M86" s="158"/>
+      <c r="N86" s="151"/>
+      <c r="O86" s="158"/>
+      <c r="P86" s="149"/>
+      <c r="Q86" s="160"/>
+      <c r="R86" s="163"/>
       <c r="S86" s="84"/>
       <c r="T86" s="85"/>
       <c r="U86" s="85"/>
@@ -16412,29 +16412,29 @@
       <c r="EL86" s="96"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="199"/>
-      <c r="C87" s="191"/>
-      <c r="D87" s="153"/>
-      <c r="E87" s="145"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="147">
+      <c r="B87" s="141"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="152"/>
+      <c r="H87" s="152">
         <v>43291</v>
       </c>
-      <c r="I87" s="147">
+      <c r="I87" s="152">
         <v>43299</v>
       </c>
-      <c r="J87" s="147">
+      <c r="J87" s="152">
         <v>43146</v>
       </c>
-      <c r="K87" s="159"/>
-      <c r="L87" s="149"/>
-      <c r="M87" s="151"/>
-      <c r="N87" s="149"/>
-      <c r="O87" s="151"/>
-      <c r="P87" s="141"/>
-      <c r="Q87" s="157"/>
-      <c r="R87" s="155"/>
+      <c r="K87" s="164"/>
+      <c r="L87" s="150"/>
+      <c r="M87" s="157"/>
+      <c r="N87" s="150"/>
+      <c r="O87" s="157"/>
+      <c r="P87" s="148"/>
+      <c r="Q87" s="159"/>
+      <c r="R87" s="162"/>
       <c r="S87" s="84"/>
       <c r="T87" s="87"/>
       <c r="U87" s="86"/>
@@ -16561,23 +16561,23 @@
       <c r="EL87" s="95"/>
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
-      <c r="B88" s="200"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="148"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="148"/>
-      <c r="K88" s="160"/>
-      <c r="L88" s="150"/>
-      <c r="M88" s="152"/>
-      <c r="N88" s="150"/>
-      <c r="O88" s="152"/>
-      <c r="P88" s="142"/>
-      <c r="Q88" s="158"/>
-      <c r="R88" s="156"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="147"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="149"/>
+      <c r="G88" s="153"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="153"/>
+      <c r="J88" s="153"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="151"/>
+      <c r="M88" s="158"/>
+      <c r="N88" s="151"/>
+      <c r="O88" s="158"/>
+      <c r="P88" s="149"/>
+      <c r="Q88" s="160"/>
+      <c r="R88" s="163"/>
       <c r="S88" s="84"/>
       <c r="T88" s="85"/>
       <c r="U88" s="85"/>
@@ -16704,29 +16704,29 @@
       <c r="EL88" s="96"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="199" t="s">
+      <c r="B89" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="191" t="s">
+      <c r="C89" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="D89" s="153"/>
-      <c r="E89" s="145"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="147"/>
-      <c r="H89" s="147">
+      <c r="D89" s="146"/>
+      <c r="E89" s="144"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="152"/>
+      <c r="H89" s="152">
         <v>43282</v>
       </c>
-      <c r="I89" s="147"/>
-      <c r="J89" s="147"/>
-      <c r="K89" s="159"/>
-      <c r="L89" s="149"/>
-      <c r="M89" s="151"/>
-      <c r="N89" s="149"/>
-      <c r="O89" s="151"/>
-      <c r="P89" s="141"/>
-      <c r="Q89" s="157"/>
-      <c r="R89" s="155"/>
+      <c r="I89" s="152"/>
+      <c r="J89" s="152"/>
+      <c r="K89" s="164"/>
+      <c r="L89" s="150"/>
+      <c r="M89" s="157"/>
+      <c r="N89" s="150"/>
+      <c r="O89" s="157"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="159"/>
+      <c r="R89" s="162"/>
       <c r="S89" s="84"/>
       <c r="T89" s="87"/>
       <c r="U89" s="86"/>
@@ -16853,23 +16853,23 @@
       <c r="EL89" s="95"/>
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
-      <c r="B90" s="200"/>
-      <c r="C90" s="191"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="142"/>
-      <c r="G90" s="148"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="148"/>
-      <c r="J90" s="148"/>
-      <c r="K90" s="160"/>
-      <c r="L90" s="150"/>
-      <c r="M90" s="152"/>
-      <c r="N90" s="150"/>
-      <c r="O90" s="152"/>
-      <c r="P90" s="142"/>
-      <c r="Q90" s="158"/>
-      <c r="R90" s="156"/>
+      <c r="B90" s="142"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="149"/>
+      <c r="G90" s="153"/>
+      <c r="H90" s="153"/>
+      <c r="I90" s="153"/>
+      <c r="J90" s="153"/>
+      <c r="K90" s="165"/>
+      <c r="L90" s="151"/>
+      <c r="M90" s="158"/>
+      <c r="N90" s="151"/>
+      <c r="O90" s="158"/>
+      <c r="P90" s="149"/>
+      <c r="Q90" s="160"/>
+      <c r="R90" s="163"/>
       <c r="S90" s="84"/>
       <c r="T90" s="85"/>
       <c r="U90" s="85"/>
@@ -16996,29 +16996,29 @@
       <c r="EL90" s="96"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="205" t="s">
+      <c r="B91" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="191" t="s">
+      <c r="C91" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="D91" s="153"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="141"/>
-      <c r="G91" s="147"/>
-      <c r="H91" s="147">
+      <c r="D91" s="146"/>
+      <c r="E91" s="144"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="152"/>
+      <c r="H91" s="152">
         <v>43282</v>
       </c>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147"/>
-      <c r="K91" s="147"/>
-      <c r="L91" s="149"/>
-      <c r="M91" s="151"/>
-      <c r="N91" s="149"/>
-      <c r="O91" s="151"/>
-      <c r="P91" s="141"/>
-      <c r="Q91" s="157"/>
-      <c r="R91" s="155"/>
+      <c r="I91" s="152"/>
+      <c r="J91" s="152"/>
+      <c r="K91" s="152"/>
+      <c r="L91" s="150"/>
+      <c r="M91" s="157"/>
+      <c r="N91" s="150"/>
+      <c r="O91" s="157"/>
+      <c r="P91" s="148"/>
+      <c r="Q91" s="159"/>
+      <c r="R91" s="162"/>
       <c r="S91" s="84"/>
       <c r="T91" s="87"/>
       <c r="U91" s="86"/>
@@ -17145,23 +17145,23 @@
       <c r="EL91" s="95"/>
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
-      <c r="B92" s="206"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="146"/>
-      <c r="F92" s="142"/>
-      <c r="G92" s="148"/>
-      <c r="H92" s="148"/>
-      <c r="I92" s="148"/>
-      <c r="J92" s="148"/>
-      <c r="K92" s="148"/>
-      <c r="L92" s="150"/>
-      <c r="M92" s="152"/>
-      <c r="N92" s="150"/>
-      <c r="O92" s="152"/>
-      <c r="P92" s="142"/>
-      <c r="Q92" s="158"/>
-      <c r="R92" s="156"/>
+      <c r="B92" s="155"/>
+      <c r="C92" s="143"/>
+      <c r="D92" s="147"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="149"/>
+      <c r="G92" s="153"/>
+      <c r="H92" s="153"/>
+      <c r="I92" s="153"/>
+      <c r="J92" s="153"/>
+      <c r="K92" s="153"/>
+      <c r="L92" s="151"/>
+      <c r="M92" s="158"/>
+      <c r="N92" s="151"/>
+      <c r="O92" s="158"/>
+      <c r="P92" s="149"/>
+      <c r="Q92" s="160"/>
+      <c r="R92" s="163"/>
       <c r="S92" s="84"/>
       <c r="T92" s="85"/>
       <c r="U92" s="85"/>
@@ -17288,27 +17288,27 @@
       <c r="EL92" s="96"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="206"/>
-      <c r="C93" s="191" t="s">
+      <c r="B93" s="155"/>
+      <c r="C93" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="153"/>
-      <c r="E93" s="145"/>
-      <c r="F93" s="141"/>
-      <c r="G93" s="147"/>
-      <c r="H93" s="147">
+      <c r="D93" s="146"/>
+      <c r="E93" s="144"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="152"/>
+      <c r="H93" s="152">
         <v>43282</v>
       </c>
-      <c r="I93" s="147"/>
-      <c r="J93" s="147"/>
-      <c r="K93" s="147"/>
-      <c r="L93" s="149"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="149"/>
-      <c r="O93" s="151"/>
-      <c r="P93" s="141"/>
-      <c r="Q93" s="157"/>
-      <c r="R93" s="155"/>
+      <c r="I93" s="152"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="152"/>
+      <c r="L93" s="150"/>
+      <c r="M93" s="157"/>
+      <c r="N93" s="150"/>
+      <c r="O93" s="157"/>
+      <c r="P93" s="148"/>
+      <c r="Q93" s="159"/>
+      <c r="R93" s="162"/>
       <c r="S93" s="84"/>
       <c r="T93" s="87"/>
       <c r="U93" s="86"/>
@@ -17435,23 +17435,23 @@
       <c r="EL93" s="95"/>
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
-      <c r="B94" s="207"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="146"/>
-      <c r="F94" s="142"/>
-      <c r="G94" s="148"/>
-      <c r="H94" s="148"/>
-      <c r="I94" s="148"/>
-      <c r="J94" s="148"/>
-      <c r="K94" s="148"/>
-      <c r="L94" s="150"/>
-      <c r="M94" s="152"/>
-      <c r="N94" s="150"/>
-      <c r="O94" s="152"/>
-      <c r="P94" s="142"/>
-      <c r="Q94" s="158"/>
-      <c r="R94" s="156"/>
+      <c r="B94" s="156"/>
+      <c r="C94" s="143"/>
+      <c r="D94" s="147"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="149"/>
+      <c r="G94" s="153"/>
+      <c r="H94" s="153"/>
+      <c r="I94" s="153"/>
+      <c r="J94" s="153"/>
+      <c r="K94" s="153"/>
+      <c r="L94" s="151"/>
+      <c r="M94" s="158"/>
+      <c r="N94" s="151"/>
+      <c r="O94" s="158"/>
+      <c r="P94" s="149"/>
+      <c r="Q94" s="160"/>
+      <c r="R94" s="163"/>
       <c r="S94" s="84"/>
       <c r="T94" s="85"/>
       <c r="U94" s="85"/>
@@ -17578,23 +17578,23 @@
       <c r="EL94" s="96"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="199"/>
-      <c r="C95" s="191"/>
-      <c r="D95" s="153"/>
-      <c r="E95" s="145"/>
-      <c r="F95" s="141"/>
-      <c r="G95" s="147"/>
-      <c r="H95" s="147"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="147"/>
-      <c r="K95" s="147"/>
-      <c r="L95" s="149"/>
-      <c r="M95" s="151"/>
-      <c r="N95" s="149"/>
-      <c r="O95" s="151"/>
-      <c r="P95" s="141"/>
-      <c r="Q95" s="157"/>
-      <c r="R95" s="155"/>
+      <c r="B95" s="141"/>
+      <c r="C95" s="143"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="152"/>
+      <c r="H95" s="152"/>
+      <c r="I95" s="152"/>
+      <c r="J95" s="152"/>
+      <c r="K95" s="152"/>
+      <c r="L95" s="150"/>
+      <c r="M95" s="157"/>
+      <c r="N95" s="150"/>
+      <c r="O95" s="157"/>
+      <c r="P95" s="148"/>
+      <c r="Q95" s="159"/>
+      <c r="R95" s="162"/>
       <c r="S95" s="84"/>
       <c r="T95" s="87"/>
       <c r="U95" s="86"/>
@@ -17721,23 +17721,23 @@
       <c r="EL95" s="95"/>
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
-      <c r="B96" s="200"/>
-      <c r="C96" s="191"/>
-      <c r="D96" s="154"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="148"/>
-      <c r="J96" s="148"/>
-      <c r="K96" s="148"/>
-      <c r="L96" s="150"/>
-      <c r="M96" s="152"/>
-      <c r="N96" s="150"/>
-      <c r="O96" s="152"/>
-      <c r="P96" s="142"/>
-      <c r="Q96" s="158"/>
-      <c r="R96" s="156"/>
+      <c r="B96" s="142"/>
+      <c r="C96" s="143"/>
+      <c r="D96" s="147"/>
+      <c r="E96" s="145"/>
+      <c r="F96" s="149"/>
+      <c r="G96" s="153"/>
+      <c r="H96" s="153"/>
+      <c r="I96" s="153"/>
+      <c r="J96" s="153"/>
+      <c r="K96" s="153"/>
+      <c r="L96" s="151"/>
+      <c r="M96" s="158"/>
+      <c r="N96" s="151"/>
+      <c r="O96" s="158"/>
+      <c r="P96" s="149"/>
+      <c r="Q96" s="160"/>
+      <c r="R96" s="163"/>
       <c r="S96" s="84"/>
       <c r="T96" s="85"/>
       <c r="U96" s="85"/>
@@ -17864,23 +17864,23 @@
       <c r="EL96" s="96"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="199"/>
-      <c r="C97" s="191"/>
-      <c r="D97" s="153"/>
-      <c r="E97" s="145"/>
-      <c r="F97" s="141"/>
-      <c r="G97" s="147"/>
-      <c r="H97" s="147"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="147"/>
-      <c r="K97" s="147"/>
-      <c r="L97" s="149"/>
-      <c r="M97" s="151"/>
-      <c r="N97" s="149"/>
-      <c r="O97" s="151"/>
-      <c r="P97" s="141"/>
-      <c r="Q97" s="157"/>
-      <c r="R97" s="155"/>
+      <c r="B97" s="141"/>
+      <c r="C97" s="143"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="152"/>
+      <c r="H97" s="152"/>
+      <c r="I97" s="152"/>
+      <c r="J97" s="152"/>
+      <c r="K97" s="152"/>
+      <c r="L97" s="150"/>
+      <c r="M97" s="157"/>
+      <c r="N97" s="150"/>
+      <c r="O97" s="157"/>
+      <c r="P97" s="148"/>
+      <c r="Q97" s="159"/>
+      <c r="R97" s="162"/>
       <c r="S97" s="84"/>
       <c r="T97" s="87"/>
       <c r="U97" s="86"/>
@@ -18007,23 +18007,23 @@
       <c r="EL97" s="95"/>
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
-      <c r="B98" s="200"/>
-      <c r="C98" s="191"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="142"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="148"/>
-      <c r="J98" s="148"/>
-      <c r="K98" s="148"/>
-      <c r="L98" s="150"/>
-      <c r="M98" s="152"/>
-      <c r="N98" s="150"/>
-      <c r="O98" s="152"/>
-      <c r="P98" s="142"/>
-      <c r="Q98" s="158"/>
-      <c r="R98" s="156"/>
+      <c r="B98" s="142"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="147"/>
+      <c r="E98" s="145"/>
+      <c r="F98" s="149"/>
+      <c r="G98" s="153"/>
+      <c r="H98" s="153"/>
+      <c r="I98" s="153"/>
+      <c r="J98" s="153"/>
+      <c r="K98" s="153"/>
+      <c r="L98" s="151"/>
+      <c r="M98" s="158"/>
+      <c r="N98" s="151"/>
+      <c r="O98" s="158"/>
+      <c r="P98" s="149"/>
+      <c r="Q98" s="160"/>
+      <c r="R98" s="163"/>
       <c r="S98" s="84"/>
       <c r="T98" s="85"/>
       <c r="U98" s="85"/>
@@ -18150,29 +18150,31 @@
       <c r="EL98" s="96"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="199" t="s">
+      <c r="B99" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="191" t="s">
-        <v>80</v>
-      </c>
-      <c r="D99" s="153"/>
-      <c r="E99" s="145"/>
-      <c r="F99" s="141"/>
-      <c r="G99" s="147"/>
-      <c r="H99" s="147">
+      <c r="C99" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="146"/>
+      <c r="E99" s="144"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="152"/>
+      <c r="H99" s="152">
         <v>43298</v>
       </c>
-      <c r="I99" s="147"/>
-      <c r="J99" s="147"/>
-      <c r="K99" s="147"/>
-      <c r="L99" s="149"/>
-      <c r="M99" s="151"/>
-      <c r="N99" s="149"/>
-      <c r="O99" s="151"/>
-      <c r="P99" s="141"/>
-      <c r="Q99" s="157"/>
-      <c r="R99" s="155"/>
+      <c r="I99" s="152"/>
+      <c r="J99" s="152"/>
+      <c r="K99" s="152"/>
+      <c r="L99" s="150"/>
+      <c r="M99" s="157"/>
+      <c r="N99" s="150"/>
+      <c r="O99" s="157"/>
+      <c r="P99" s="148"/>
+      <c r="Q99" s="159">
+        <v>50</v>
+      </c>
+      <c r="R99" s="162"/>
       <c r="S99" s="84"/>
       <c r="T99" s="87"/>
       <c r="U99" s="86"/>
@@ -18299,23 +18301,23 @@
       <c r="EL99" s="95"/>
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
-      <c r="B100" s="200"/>
-      <c r="C100" s="191"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="146"/>
-      <c r="F100" s="142"/>
-      <c r="G100" s="148"/>
-      <c r="H100" s="148"/>
-      <c r="I100" s="148"/>
-      <c r="J100" s="148"/>
-      <c r="K100" s="148"/>
-      <c r="L100" s="150"/>
-      <c r="M100" s="152"/>
-      <c r="N100" s="150"/>
-      <c r="O100" s="152"/>
-      <c r="P100" s="142"/>
-      <c r="Q100" s="158"/>
-      <c r="R100" s="156"/>
+      <c r="B100" s="142"/>
+      <c r="C100" s="143"/>
+      <c r="D100" s="147"/>
+      <c r="E100" s="145"/>
+      <c r="F100" s="149"/>
+      <c r="G100" s="153"/>
+      <c r="H100" s="153"/>
+      <c r="I100" s="153"/>
+      <c r="J100" s="153"/>
+      <c r="K100" s="153"/>
+      <c r="L100" s="151"/>
+      <c r="M100" s="158"/>
+      <c r="N100" s="151"/>
+      <c r="O100" s="158"/>
+      <c r="P100" s="149"/>
+      <c r="Q100" s="160"/>
+      <c r="R100" s="163"/>
       <c r="S100" s="84"/>
       <c r="T100" s="85"/>
       <c r="U100" s="85"/>
@@ -18442,27 +18444,29 @@
       <c r="EL100" s="96"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="199"/>
-      <c r="C101" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="153"/>
-      <c r="E101" s="145"/>
-      <c r="F101" s="141"/>
-      <c r="G101" s="147"/>
-      <c r="H101" s="147">
+      <c r="B101" s="141"/>
+      <c r="C101" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="146"/>
+      <c r="E101" s="144"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="152"/>
+      <c r="H101" s="152">
         <v>43298</v>
       </c>
-      <c r="I101" s="147"/>
-      <c r="J101" s="147"/>
-      <c r="K101" s="147"/>
-      <c r="L101" s="149"/>
-      <c r="M101" s="151"/>
-      <c r="N101" s="149"/>
-      <c r="O101" s="151"/>
-      <c r="P101" s="141"/>
-      <c r="Q101" s="157"/>
-      <c r="R101" s="155"/>
+      <c r="I101" s="152"/>
+      <c r="J101" s="152"/>
+      <c r="K101" s="152"/>
+      <c r="L101" s="150"/>
+      <c r="M101" s="157"/>
+      <c r="N101" s="150"/>
+      <c r="O101" s="157"/>
+      <c r="P101" s="148"/>
+      <c r="Q101" s="159">
+        <v>20</v>
+      </c>
+      <c r="R101" s="162"/>
       <c r="S101" s="84"/>
       <c r="T101" s="87"/>
       <c r="U101" s="86"/>
@@ -18589,23 +18593,23 @@
       <c r="EL101" s="95"/>
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
-      <c r="B102" s="200"/>
-      <c r="C102" s="191"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="146"/>
-      <c r="F102" s="142"/>
-      <c r="G102" s="148"/>
-      <c r="H102" s="148"/>
-      <c r="I102" s="148"/>
-      <c r="J102" s="148"/>
-      <c r="K102" s="148"/>
-      <c r="L102" s="150"/>
-      <c r="M102" s="152"/>
-      <c r="N102" s="150"/>
-      <c r="O102" s="152"/>
-      <c r="P102" s="142"/>
-      <c r="Q102" s="158"/>
-      <c r="R102" s="156"/>
+      <c r="B102" s="142"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="145"/>
+      <c r="F102" s="149"/>
+      <c r="G102" s="153"/>
+      <c r="H102" s="153"/>
+      <c r="I102" s="153"/>
+      <c r="J102" s="153"/>
+      <c r="K102" s="153"/>
+      <c r="L102" s="151"/>
+      <c r="M102" s="158"/>
+      <c r="N102" s="151"/>
+      <c r="O102" s="158"/>
+      <c r="P102" s="149"/>
+      <c r="Q102" s="160"/>
+      <c r="R102" s="163"/>
       <c r="S102" s="84"/>
       <c r="T102" s="85"/>
       <c r="U102" s="85"/>
@@ -18732,23 +18736,23 @@
       <c r="EL102" s="96"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="199"/>
-      <c r="C103" s="191"/>
-      <c r="D103" s="153"/>
-      <c r="E103" s="145"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="147"/>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="147"/>
-      <c r="K103" s="147"/>
-      <c r="L103" s="147"/>
-      <c r="M103" s="147"/>
-      <c r="N103" s="147"/>
-      <c r="O103" s="147"/>
-      <c r="P103" s="141"/>
-      <c r="Q103" s="157"/>
-      <c r="R103" s="155"/>
+      <c r="B103" s="141"/>
+      <c r="C103" s="143"/>
+      <c r="D103" s="146"/>
+      <c r="E103" s="144"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="152"/>
+      <c r="H103" s="152"/>
+      <c r="I103" s="152"/>
+      <c r="J103" s="152"/>
+      <c r="K103" s="152"/>
+      <c r="L103" s="152"/>
+      <c r="M103" s="152"/>
+      <c r="N103" s="152"/>
+      <c r="O103" s="152"/>
+      <c r="P103" s="148"/>
+      <c r="Q103" s="159"/>
+      <c r="R103" s="162"/>
       <c r="S103" s="84"/>
       <c r="T103" s="87"/>
       <c r="U103" s="86"/>
@@ -18875,23 +18879,23 @@
       <c r="EL103" s="95"/>
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
-      <c r="B104" s="200"/>
-      <c r="C104" s="191"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="146"/>
-      <c r="F104" s="142"/>
-      <c r="G104" s="148"/>
-      <c r="H104" s="148"/>
-      <c r="I104" s="148"/>
-      <c r="J104" s="148"/>
-      <c r="K104" s="148"/>
-      <c r="L104" s="148"/>
-      <c r="M104" s="148"/>
-      <c r="N104" s="148"/>
-      <c r="O104" s="148"/>
-      <c r="P104" s="142"/>
-      <c r="Q104" s="158"/>
-      <c r="R104" s="156"/>
+      <c r="B104" s="142"/>
+      <c r="C104" s="143"/>
+      <c r="D104" s="147"/>
+      <c r="E104" s="145"/>
+      <c r="F104" s="149"/>
+      <c r="G104" s="153"/>
+      <c r="H104" s="153"/>
+      <c r="I104" s="153"/>
+      <c r="J104" s="153"/>
+      <c r="K104" s="153"/>
+      <c r="L104" s="153"/>
+      <c r="M104" s="153"/>
+      <c r="N104" s="153"/>
+      <c r="O104" s="153"/>
+      <c r="P104" s="149"/>
+      <c r="Q104" s="160"/>
+      <c r="R104" s="163"/>
       <c r="S104" s="84"/>
       <c r="T104" s="85"/>
       <c r="U104" s="85"/>
@@ -19018,23 +19022,23 @@
       <c r="EL104" s="96"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="199"/>
-      <c r="C105" s="191"/>
-      <c r="D105" s="153"/>
-      <c r="E105" s="145"/>
-      <c r="F105" s="141"/>
-      <c r="G105" s="147"/>
-      <c r="H105" s="147"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="147"/>
-      <c r="K105" s="147"/>
-      <c r="L105" s="149"/>
-      <c r="M105" s="151"/>
-      <c r="N105" s="149"/>
-      <c r="O105" s="151"/>
-      <c r="P105" s="141"/>
-      <c r="Q105" s="157"/>
-      <c r="R105" s="155"/>
+      <c r="B105" s="141"/>
+      <c r="C105" s="143"/>
+      <c r="D105" s="146"/>
+      <c r="E105" s="144"/>
+      <c r="F105" s="148"/>
+      <c r="G105" s="152"/>
+      <c r="H105" s="152"/>
+      <c r="I105" s="152"/>
+      <c r="J105" s="152"/>
+      <c r="K105" s="152"/>
+      <c r="L105" s="150"/>
+      <c r="M105" s="157"/>
+      <c r="N105" s="150"/>
+      <c r="O105" s="157"/>
+      <c r="P105" s="148"/>
+      <c r="Q105" s="159"/>
+      <c r="R105" s="162"/>
       <c r="S105" s="84"/>
       <c r="T105" s="87"/>
       <c r="U105" s="86"/>
@@ -19161,23 +19165,23 @@
       <c r="EL105" s="95"/>
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
-      <c r="B106" s="200"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="146"/>
-      <c r="F106" s="142"/>
-      <c r="G106" s="148"/>
-      <c r="H106" s="148"/>
-      <c r="I106" s="148"/>
-      <c r="J106" s="148"/>
-      <c r="K106" s="148"/>
-      <c r="L106" s="150"/>
-      <c r="M106" s="152"/>
-      <c r="N106" s="150"/>
-      <c r="O106" s="152"/>
-      <c r="P106" s="142"/>
-      <c r="Q106" s="158"/>
-      <c r="R106" s="156"/>
+      <c r="B106" s="142"/>
+      <c r="C106" s="143"/>
+      <c r="D106" s="147"/>
+      <c r="E106" s="145"/>
+      <c r="F106" s="149"/>
+      <c r="G106" s="153"/>
+      <c r="H106" s="153"/>
+      <c r="I106" s="153"/>
+      <c r="J106" s="153"/>
+      <c r="K106" s="153"/>
+      <c r="L106" s="151"/>
+      <c r="M106" s="158"/>
+      <c r="N106" s="151"/>
+      <c r="O106" s="158"/>
+      <c r="P106" s="149"/>
+      <c r="Q106" s="160"/>
+      <c r="R106" s="163"/>
       <c r="S106" s="84"/>
       <c r="T106" s="85"/>
       <c r="U106" s="85"/>
@@ -19304,23 +19308,23 @@
       <c r="EL106" s="96"/>
     </row>
     <row r="107" spans="2:142" ht="9" customHeight="1">
-      <c r="B107" s="199"/>
-      <c r="C107" s="191"/>
-      <c r="D107" s="153"/>
-      <c r="E107" s="145"/>
-      <c r="F107" s="141"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="159"/>
-      <c r="K107" s="159"/>
-      <c r="L107" s="149"/>
-      <c r="M107" s="151"/>
-      <c r="N107" s="149"/>
-      <c r="O107" s="151"/>
-      <c r="P107" s="141"/>
-      <c r="Q107" s="157"/>
-      <c r="R107" s="155"/>
+      <c r="B107" s="141"/>
+      <c r="C107" s="143"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="144"/>
+      <c r="F107" s="148"/>
+      <c r="G107" s="152"/>
+      <c r="H107" s="152"/>
+      <c r="I107" s="152"/>
+      <c r="J107" s="164"/>
+      <c r="K107" s="164"/>
+      <c r="L107" s="150"/>
+      <c r="M107" s="157"/>
+      <c r="N107" s="150"/>
+      <c r="O107" s="157"/>
+      <c r="P107" s="148"/>
+      <c r="Q107" s="159"/>
+      <c r="R107" s="162"/>
       <c r="S107" s="84"/>
       <c r="T107" s="87"/>
       <c r="U107" s="86"/>
@@ -19447,23 +19451,23 @@
       <c r="EL107" s="95"/>
     </row>
     <row r="108" spans="2:142" ht="9" customHeight="1">
-      <c r="B108" s="200"/>
-      <c r="C108" s="191"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="146"/>
-      <c r="F108" s="142"/>
-      <c r="G108" s="148"/>
-      <c r="H108" s="148"/>
-      <c r="I108" s="148"/>
-      <c r="J108" s="160"/>
-      <c r="K108" s="160"/>
-      <c r="L108" s="150"/>
-      <c r="M108" s="152"/>
-      <c r="N108" s="150"/>
-      <c r="O108" s="152"/>
-      <c r="P108" s="142"/>
-      <c r="Q108" s="158"/>
-      <c r="R108" s="156"/>
+      <c r="B108" s="142"/>
+      <c r="C108" s="143"/>
+      <c r="D108" s="147"/>
+      <c r="E108" s="145"/>
+      <c r="F108" s="149"/>
+      <c r="G108" s="153"/>
+      <c r="H108" s="153"/>
+      <c r="I108" s="153"/>
+      <c r="J108" s="165"/>
+      <c r="K108" s="165"/>
+      <c r="L108" s="151"/>
+      <c r="M108" s="158"/>
+      <c r="N108" s="151"/>
+      <c r="O108" s="158"/>
+      <c r="P108" s="149"/>
+      <c r="Q108" s="160"/>
+      <c r="R108" s="163"/>
       <c r="S108" s="84"/>
       <c r="T108" s="85"/>
       <c r="U108" s="85"/>
@@ -19590,23 +19594,23 @@
       <c r="EL108" s="96"/>
     </row>
     <row r="109" spans="2:142" ht="9" customHeight="1">
-      <c r="B109" s="199"/>
-      <c r="C109" s="191"/>
-      <c r="D109" s="153"/>
-      <c r="E109" s="145"/>
-      <c r="F109" s="141"/>
-      <c r="G109" s="147"/>
-      <c r="H109" s="147"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="159"/>
-      <c r="K109" s="159"/>
-      <c r="L109" s="149"/>
-      <c r="M109" s="151"/>
-      <c r="N109" s="149"/>
-      <c r="O109" s="151"/>
-      <c r="P109" s="141"/>
-      <c r="Q109" s="157"/>
-      <c r="R109" s="155"/>
+      <c r="B109" s="141"/>
+      <c r="C109" s="143"/>
+      <c r="D109" s="146"/>
+      <c r="E109" s="144"/>
+      <c r="F109" s="148"/>
+      <c r="G109" s="152"/>
+      <c r="H109" s="152"/>
+      <c r="I109" s="152"/>
+      <c r="J109" s="164"/>
+      <c r="K109" s="164"/>
+      <c r="L109" s="150"/>
+      <c r="M109" s="157"/>
+      <c r="N109" s="150"/>
+      <c r="O109" s="157"/>
+      <c r="P109" s="148"/>
+      <c r="Q109" s="159"/>
+      <c r="R109" s="162"/>
       <c r="S109" s="84"/>
       <c r="T109" s="87"/>
       <c r="U109" s="86"/>
@@ -19733,23 +19737,23 @@
       <c r="EL109" s="95"/>
     </row>
     <row r="110" spans="2:142" ht="9" customHeight="1">
-      <c r="B110" s="200"/>
-      <c r="C110" s="191"/>
-      <c r="D110" s="154"/>
-      <c r="E110" s="146"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="148"/>
-      <c r="H110" s="148"/>
-      <c r="I110" s="148"/>
-      <c r="J110" s="160"/>
-      <c r="K110" s="160"/>
-      <c r="L110" s="150"/>
-      <c r="M110" s="152"/>
-      <c r="N110" s="150"/>
-      <c r="O110" s="152"/>
-      <c r="P110" s="142"/>
-      <c r="Q110" s="158"/>
-      <c r="R110" s="156"/>
+      <c r="B110" s="142"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="147"/>
+      <c r="E110" s="145"/>
+      <c r="F110" s="149"/>
+      <c r="G110" s="153"/>
+      <c r="H110" s="153"/>
+      <c r="I110" s="153"/>
+      <c r="J110" s="165"/>
+      <c r="K110" s="165"/>
+      <c r="L110" s="151"/>
+      <c r="M110" s="158"/>
+      <c r="N110" s="151"/>
+      <c r="O110" s="158"/>
+      <c r="P110" s="149"/>
+      <c r="Q110" s="160"/>
+      <c r="R110" s="163"/>
       <c r="S110" s="84"/>
       <c r="T110" s="85"/>
       <c r="U110" s="85"/>
@@ -19876,23 +19880,23 @@
       <c r="EL110" s="96"/>
     </row>
     <row r="111" spans="2:142" ht="9" customHeight="1">
-      <c r="B111" s="199"/>
-      <c r="C111" s="191"/>
-      <c r="D111" s="153"/>
-      <c r="E111" s="145"/>
-      <c r="F111" s="141"/>
-      <c r="G111" s="147"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="159"/>
-      <c r="K111" s="159"/>
-      <c r="L111" s="149"/>
-      <c r="M111" s="151"/>
-      <c r="N111" s="149"/>
-      <c r="O111" s="151"/>
-      <c r="P111" s="141"/>
-      <c r="Q111" s="157"/>
-      <c r="R111" s="155"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="143"/>
+      <c r="D111" s="146"/>
+      <c r="E111" s="144"/>
+      <c r="F111" s="148"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
+      <c r="I111" s="152"/>
+      <c r="J111" s="164"/>
+      <c r="K111" s="164"/>
+      <c r="L111" s="150"/>
+      <c r="M111" s="157"/>
+      <c r="N111" s="150"/>
+      <c r="O111" s="157"/>
+      <c r="P111" s="148"/>
+      <c r="Q111" s="159"/>
+      <c r="R111" s="162"/>
       <c r="S111" s="84"/>
       <c r="T111" s="87"/>
       <c r="U111" s="86"/>
@@ -20019,23 +20023,23 @@
       <c r="EL111" s="95"/>
     </row>
     <row r="112" spans="2:142" ht="9" customHeight="1">
-      <c r="B112" s="200"/>
-      <c r="C112" s="191"/>
-      <c r="D112" s="154"/>
-      <c r="E112" s="146"/>
-      <c r="F112" s="142"/>
-      <c r="G112" s="148"/>
-      <c r="H112" s="148"/>
-      <c r="I112" s="148"/>
-      <c r="J112" s="160"/>
-      <c r="K112" s="160"/>
-      <c r="L112" s="150"/>
-      <c r="M112" s="152"/>
-      <c r="N112" s="150"/>
-      <c r="O112" s="152"/>
-      <c r="P112" s="142"/>
-      <c r="Q112" s="158"/>
-      <c r="R112" s="156"/>
+      <c r="B112" s="142"/>
+      <c r="C112" s="143"/>
+      <c r="D112" s="147"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="149"/>
+      <c r="G112" s="153"/>
+      <c r="H112" s="153"/>
+      <c r="I112" s="153"/>
+      <c r="J112" s="165"/>
+      <c r="K112" s="165"/>
+      <c r="L112" s="151"/>
+      <c r="M112" s="158"/>
+      <c r="N112" s="151"/>
+      <c r="O112" s="158"/>
+      <c r="P112" s="149"/>
+      <c r="Q112" s="160"/>
+      <c r="R112" s="163"/>
       <c r="S112" s="84"/>
       <c r="T112" s="85"/>
       <c r="U112" s="85"/>
@@ -20162,23 +20166,23 @@
       <c r="EL112" s="96"/>
     </row>
     <row r="113" spans="2:142" ht="9" customHeight="1">
-      <c r="B113" s="199"/>
-      <c r="C113" s="191"/>
-      <c r="D113" s="153"/>
-      <c r="E113" s="145"/>
-      <c r="F113" s="141"/>
-      <c r="G113" s="147"/>
-      <c r="H113" s="147"/>
-      <c r="I113" s="147"/>
-      <c r="J113" s="159"/>
-      <c r="K113" s="159"/>
-      <c r="L113" s="149"/>
-      <c r="M113" s="151"/>
-      <c r="N113" s="149"/>
-      <c r="O113" s="151"/>
-      <c r="P113" s="141"/>
-      <c r="Q113" s="157"/>
-      <c r="R113" s="155"/>
+      <c r="B113" s="141"/>
+      <c r="C113" s="143"/>
+      <c r="D113" s="146"/>
+      <c r="E113" s="144"/>
+      <c r="F113" s="148"/>
+      <c r="G113" s="152"/>
+      <c r="H113" s="152"/>
+      <c r="I113" s="152"/>
+      <c r="J113" s="164"/>
+      <c r="K113" s="164"/>
+      <c r="L113" s="150"/>
+      <c r="M113" s="157"/>
+      <c r="N113" s="150"/>
+      <c r="O113" s="157"/>
+      <c r="P113" s="148"/>
+      <c r="Q113" s="159"/>
+      <c r="R113" s="162"/>
       <c r="S113" s="84"/>
       <c r="T113" s="87"/>
       <c r="U113" s="86"/>
@@ -20305,23 +20309,23 @@
       <c r="EL113" s="95"/>
     </row>
     <row r="114" spans="2:142" ht="9" customHeight="1">
-      <c r="B114" s="200"/>
-      <c r="C114" s="191"/>
-      <c r="D114" s="154"/>
-      <c r="E114" s="146"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="148"/>
-      <c r="H114" s="148"/>
-      <c r="I114" s="148"/>
-      <c r="J114" s="160"/>
-      <c r="K114" s="160"/>
-      <c r="L114" s="150"/>
-      <c r="M114" s="152"/>
-      <c r="N114" s="150"/>
-      <c r="O114" s="152"/>
-      <c r="P114" s="142"/>
-      <c r="Q114" s="158"/>
-      <c r="R114" s="156"/>
+      <c r="B114" s="142"/>
+      <c r="C114" s="143"/>
+      <c r="D114" s="147"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="149"/>
+      <c r="G114" s="153"/>
+      <c r="H114" s="153"/>
+      <c r="I114" s="153"/>
+      <c r="J114" s="165"/>
+      <c r="K114" s="165"/>
+      <c r="L114" s="151"/>
+      <c r="M114" s="158"/>
+      <c r="N114" s="151"/>
+      <c r="O114" s="158"/>
+      <c r="P114" s="149"/>
+      <c r="Q114" s="160"/>
+      <c r="R114" s="163"/>
       <c r="S114" s="84"/>
       <c r="T114" s="85"/>
       <c r="U114" s="85"/>
@@ -20448,23 +20452,23 @@
       <c r="EL114" s="96"/>
     </row>
     <row r="115" spans="2:142" ht="9" customHeight="1">
-      <c r="B115" s="199"/>
-      <c r="C115" s="191"/>
-      <c r="D115" s="153"/>
-      <c r="E115" s="145"/>
-      <c r="F115" s="141"/>
-      <c r="G115" s="147"/>
-      <c r="H115" s="147"/>
-      <c r="I115" s="147"/>
-      <c r="J115" s="159"/>
-      <c r="K115" s="159"/>
-      <c r="L115" s="149"/>
-      <c r="M115" s="151"/>
-      <c r="N115" s="149"/>
-      <c r="O115" s="151"/>
-      <c r="P115" s="141"/>
-      <c r="Q115" s="157"/>
-      <c r="R115" s="155"/>
+      <c r="B115" s="141"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="146"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="148"/>
+      <c r="G115" s="152"/>
+      <c r="H115" s="152"/>
+      <c r="I115" s="152"/>
+      <c r="J115" s="164"/>
+      <c r="K115" s="164"/>
+      <c r="L115" s="150"/>
+      <c r="M115" s="157"/>
+      <c r="N115" s="150"/>
+      <c r="O115" s="157"/>
+      <c r="P115" s="148"/>
+      <c r="Q115" s="159"/>
+      <c r="R115" s="162"/>
       <c r="S115" s="84"/>
       <c r="T115" s="87"/>
       <c r="U115" s="86"/>
@@ -20591,23 +20595,23 @@
       <c r="EL115" s="95"/>
     </row>
     <row r="116" spans="2:142" ht="9" customHeight="1">
-      <c r="B116" s="200"/>
-      <c r="C116" s="191"/>
-      <c r="D116" s="154"/>
-      <c r="E116" s="146"/>
-      <c r="F116" s="142"/>
-      <c r="G116" s="148"/>
-      <c r="H116" s="148"/>
-      <c r="I116" s="148"/>
-      <c r="J116" s="160"/>
-      <c r="K116" s="160"/>
-      <c r="L116" s="150"/>
-      <c r="M116" s="152"/>
-      <c r="N116" s="150"/>
-      <c r="O116" s="152"/>
-      <c r="P116" s="142"/>
-      <c r="Q116" s="158"/>
-      <c r="R116" s="156"/>
+      <c r="B116" s="142"/>
+      <c r="C116" s="143"/>
+      <c r="D116" s="147"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="149"/>
+      <c r="G116" s="153"/>
+      <c r="H116" s="153"/>
+      <c r="I116" s="153"/>
+      <c r="J116" s="165"/>
+      <c r="K116" s="165"/>
+      <c r="L116" s="151"/>
+      <c r="M116" s="158"/>
+      <c r="N116" s="151"/>
+      <c r="O116" s="158"/>
+      <c r="P116" s="149"/>
+      <c r="Q116" s="160"/>
+      <c r="R116" s="163"/>
       <c r="S116" s="84"/>
       <c r="T116" s="85"/>
       <c r="U116" s="85"/>
@@ -20734,23 +20738,23 @@
       <c r="EL116" s="96"/>
     </row>
     <row r="117" spans="2:142" ht="9" customHeight="1">
-      <c r="B117" s="199"/>
-      <c r="C117" s="191"/>
-      <c r="D117" s="153"/>
-      <c r="E117" s="145"/>
-      <c r="F117" s="141"/>
-      <c r="G117" s="147"/>
-      <c r="H117" s="147"/>
-      <c r="I117" s="147"/>
-      <c r="J117" s="159"/>
-      <c r="K117" s="159"/>
-      <c r="L117" s="149"/>
-      <c r="M117" s="151"/>
-      <c r="N117" s="149"/>
-      <c r="O117" s="151"/>
-      <c r="P117" s="141"/>
-      <c r="Q117" s="157"/>
-      <c r="R117" s="155"/>
+      <c r="B117" s="141"/>
+      <c r="C117" s="143"/>
+      <c r="D117" s="146"/>
+      <c r="E117" s="144"/>
+      <c r="F117" s="148"/>
+      <c r="G117" s="152"/>
+      <c r="H117" s="152"/>
+      <c r="I117" s="152"/>
+      <c r="J117" s="164"/>
+      <c r="K117" s="164"/>
+      <c r="L117" s="150"/>
+      <c r="M117" s="157"/>
+      <c r="N117" s="150"/>
+      <c r="O117" s="157"/>
+      <c r="P117" s="148"/>
+      <c r="Q117" s="159"/>
+      <c r="R117" s="162"/>
       <c r="S117" s="84"/>
       <c r="T117" s="87"/>
       <c r="U117" s="86"/>
@@ -20877,23 +20881,23 @@
       <c r="EL117" s="95"/>
     </row>
     <row r="118" spans="2:142" ht="9" customHeight="1">
-      <c r="B118" s="200"/>
-      <c r="C118" s="191"/>
-      <c r="D118" s="154"/>
-      <c r="E118" s="146"/>
-      <c r="F118" s="142"/>
-      <c r="G118" s="148"/>
-      <c r="H118" s="148"/>
-      <c r="I118" s="148"/>
-      <c r="J118" s="160"/>
-      <c r="K118" s="160"/>
-      <c r="L118" s="150"/>
-      <c r="M118" s="152"/>
-      <c r="N118" s="150"/>
-      <c r="O118" s="152"/>
-      <c r="P118" s="142"/>
-      <c r="Q118" s="158"/>
-      <c r="R118" s="156"/>
+      <c r="B118" s="142"/>
+      <c r="C118" s="143"/>
+      <c r="D118" s="147"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="149"/>
+      <c r="G118" s="153"/>
+      <c r="H118" s="153"/>
+      <c r="I118" s="153"/>
+      <c r="J118" s="165"/>
+      <c r="K118" s="165"/>
+      <c r="L118" s="151"/>
+      <c r="M118" s="158"/>
+      <c r="N118" s="151"/>
+      <c r="O118" s="158"/>
+      <c r="P118" s="149"/>
+      <c r="Q118" s="160"/>
+      <c r="R118" s="163"/>
       <c r="S118" s="84"/>
       <c r="T118" s="85"/>
       <c r="U118" s="85"/>
@@ -21020,23 +21024,23 @@
       <c r="EL118" s="96"/>
     </row>
     <row r="119" spans="2:142" ht="9" customHeight="1">
-      <c r="B119" s="199"/>
-      <c r="C119" s="191"/>
-      <c r="D119" s="153"/>
-      <c r="E119" s="145"/>
-      <c r="F119" s="141"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="147"/>
-      <c r="J119" s="159"/>
-      <c r="K119" s="159"/>
-      <c r="L119" s="149"/>
-      <c r="M119" s="151"/>
-      <c r="N119" s="149"/>
-      <c r="O119" s="151"/>
-      <c r="P119" s="141"/>
-      <c r="Q119" s="157"/>
-      <c r="R119" s="155"/>
+      <c r="B119" s="141"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="146"/>
+      <c r="E119" s="144"/>
+      <c r="F119" s="148"/>
+      <c r="G119" s="152"/>
+      <c r="H119" s="152"/>
+      <c r="I119" s="152"/>
+      <c r="J119" s="164"/>
+      <c r="K119" s="164"/>
+      <c r="L119" s="150"/>
+      <c r="M119" s="157"/>
+      <c r="N119" s="150"/>
+      <c r="O119" s="157"/>
+      <c r="P119" s="148"/>
+      <c r="Q119" s="159"/>
+      <c r="R119" s="162"/>
       <c r="S119" s="84"/>
       <c r="T119" s="87"/>
       <c r="U119" s="86"/>
@@ -21163,23 +21167,23 @@
       <c r="EL119" s="95"/>
     </row>
     <row r="120" spans="2:142" ht="9" customHeight="1">
-      <c r="B120" s="200"/>
-      <c r="C120" s="191"/>
-      <c r="D120" s="154"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="142"/>
-      <c r="G120" s="148"/>
-      <c r="H120" s="148"/>
-      <c r="I120" s="148"/>
-      <c r="J120" s="160"/>
-      <c r="K120" s="160"/>
-      <c r="L120" s="150"/>
-      <c r="M120" s="152"/>
-      <c r="N120" s="150"/>
-      <c r="O120" s="152"/>
-      <c r="P120" s="142"/>
-      <c r="Q120" s="158"/>
-      <c r="R120" s="156"/>
+      <c r="B120" s="142"/>
+      <c r="C120" s="143"/>
+      <c r="D120" s="147"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="149"/>
+      <c r="G120" s="153"/>
+      <c r="H120" s="153"/>
+      <c r="I120" s="153"/>
+      <c r="J120" s="165"/>
+      <c r="K120" s="165"/>
+      <c r="L120" s="151"/>
+      <c r="M120" s="158"/>
+      <c r="N120" s="151"/>
+      <c r="O120" s="158"/>
+      <c r="P120" s="149"/>
+      <c r="Q120" s="160"/>
+      <c r="R120" s="163"/>
       <c r="S120" s="84"/>
       <c r="T120" s="85"/>
       <c r="U120" s="85"/>
@@ -21312,36 +21316,911 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="962">
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P117:P118"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="O117:O118"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="R111:R112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="N113:N114"/>
+    <mergeCell ref="O113:O114"/>
+    <mergeCell ref="Q113:Q114"/>
+    <mergeCell ref="R113:R114"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="P113:P114"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="R115:R116"/>
+    <mergeCell ref="P115:P116"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="N115:N116"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="Q109:Q110"/>
+    <mergeCell ref="R109:R110"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="EL8:EL10"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="BZ2:CB2"/>
+    <mergeCell ref="CC2:CE2"/>
+    <mergeCell ref="CF2:CH2"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="E101:E102"/>
@@ -21366,914 +22245,39 @@
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="BZ2:CB2"/>
-    <mergeCell ref="CC2:CE2"/>
-    <mergeCell ref="CF2:CH2"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="EL8:EL10"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="N99:N100"/>
     <mergeCell ref="O99:O100"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="Q101:Q102"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="Q93:Q94"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="L101:L102"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="P101:P102"/>
-    <mergeCell ref="P103:P104"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="Q107:Q108"/>
-    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="E111:E112"/>
     <mergeCell ref="D109:D110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="Q109:Q110"/>
-    <mergeCell ref="R109:R110"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="N115:N116"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="Q111:Q112"/>
-    <mergeCell ref="R111:R112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="N113:N114"/>
-    <mergeCell ref="O113:O114"/>
-    <mergeCell ref="Q113:Q114"/>
-    <mergeCell ref="R113:R114"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="P113:P114"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="Q115:Q116"/>
-    <mergeCell ref="R115:R116"/>
-    <mergeCell ref="P115:P116"/>
-    <mergeCell ref="P117:P118"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="N117:N118"/>
-    <mergeCell ref="O117:O118"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="P41:P42"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
@@ -22611,7 +22615,7 @@
       <formula>IF(OR(AND($D101&lt;&gt;"",$J101&lt;&gt;"",$Q101&lt;100),TODAY()&gt;=$H101),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11:Q120">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -22647,11 +22651,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
     </row>
     <row r="4" spans="2:23" ht="16.5" customHeight="1">
       <c r="B4" s="71" t="s">
